--- a/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.530789978854386</v>
+        <v>2.530789978854671</v>
       </c>
       <c r="C2">
-        <v>0.3519541149358076</v>
+        <v>0.3519541149359497</v>
       </c>
       <c r="D2">
-        <v>0.1441359033927654</v>
+        <v>0.1441359033926091</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.542002338965972</v>
+        <v>6.542002338966</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3820924665679613</v>
+        <v>0.3820924665679755</v>
       </c>
       <c r="J2">
-        <v>0.6144462652470253</v>
+        <v>0.6144462652470679</v>
       </c>
       <c r="K2">
-        <v>0.4850798069818154</v>
+        <v>0.4850798069818083</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.165491114436009</v>
+        <v>2.165491114435952</v>
       </c>
       <c r="C3">
-        <v>0.3005806861641531</v>
+        <v>0.3005806861641247</v>
       </c>
       <c r="D3">
-        <v>0.1281808368533817</v>
+        <v>0.1281808368539359</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.735787893326062</v>
+        <v>5.735787893326034</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.328772276421887</v>
+        <v>0.3287722764219225</v>
       </c>
       <c r="J3">
-        <v>0.5246996112002549</v>
+        <v>0.5246996112002762</v>
       </c>
       <c r="K3">
         <v>0.4137829802394251</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.947599249273281</v>
+        <v>1.947599249273253</v>
       </c>
       <c r="C4">
-        <v>0.269925680626514</v>
+        <v>0.2699256806263293</v>
       </c>
       <c r="D4">
-        <v>0.1186550923586225</v>
+        <v>0.1186550923584235</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.254185476657398</v>
+        <v>5.254185476657284</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2969966016636647</v>
+        <v>0.2969966016636292</v>
       </c>
       <c r="J4">
-        <v>0.4711623436450623</v>
+        <v>0.4711623436450694</v>
       </c>
       <c r="K4">
-        <v>0.3713367532721179</v>
+        <v>0.371336753272054</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.860173118745877</v>
+        <v>1.86017311874599</v>
       </c>
       <c r="C5">
-        <v>0.2576182055743601</v>
+        <v>0.2576182055745591</v>
       </c>
       <c r="D5">
-        <v>0.1148288376099487</v>
+        <v>0.1148288376101689</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.060786975004589</v>
+        <v>5.060786975004618</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2842522552589699</v>
+        <v>0.2842522552589273</v>
       </c>
       <c r="J5">
-        <v>0.4496783387363621</v>
+        <v>0.4496783387363692</v>
       </c>
       <c r="K5">
-        <v>0.3543206286765255</v>
+        <v>0.3543206286765539</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845732043748058</v>
+        <v>1.845732043748001</v>
       </c>
       <c r="C6">
-        <v>0.2555846719484265</v>
+        <v>0.2555846719484975</v>
       </c>
       <c r="D6">
-        <v>0.1141965085429888</v>
+        <v>0.1141965085430314</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2821474009152283</v>
+        <v>0.2821474009152496</v>
       </c>
       <c r="J6">
-        <v>0.4461293876394166</v>
+        <v>0.4461293876394024</v>
       </c>
       <c r="K6">
-        <v>0.3515106508134593</v>
+        <v>0.3515106508134309</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.946414957377954</v>
+        <v>1.946414957377755</v>
       </c>
       <c r="C7">
-        <v>0.2697589976028212</v>
+        <v>0.2697589976022812</v>
       </c>
       <c r="D7">
-        <v>0.1186032806507242</v>
+        <v>0.1186032806505395</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.251566301351914</v>
+        <v>5.251566301351886</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2968239454646735</v>
+        <v>0.2968239454647019</v>
       </c>
       <c r="J7">
         <v>0.4708713307222823</v>
       </c>
       <c r="K7">
-        <v>0.3711061957303556</v>
+        <v>0.3711061957304267</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.403349613860257</v>
+        <v>2.40334961386003</v>
       </c>
       <c r="C8">
-        <v>0.3340312279336501</v>
+        <v>0.3340312279340765</v>
       </c>
       <c r="D8">
-        <v>0.1385703847399995</v>
+        <v>0.1385703847404542</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.260905048643536</v>
+        <v>6.260905048643451</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3634835640922702</v>
+        <v>0.3634835640922418</v>
       </c>
       <c r="J8">
-        <v>0.5831368987697587</v>
+        <v>0.5831368987697516</v>
       </c>
       <c r="K8">
-        <v>0.4601861644285492</v>
+        <v>0.4601861644284995</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.363063992222351</v>
+        <v>3.363063992222123</v>
       </c>
       <c r="C9">
-        <v>0.4691761196165487</v>
+        <v>0.4691761196165203</v>
       </c>
       <c r="D9">
-        <v>0.1805322658752857</v>
+        <v>0.1805322658752289</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.373705807881464</v>
+        <v>8.373705807881521</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5038368726846016</v>
+        <v>0.5038368726846443</v>
       </c>
       <c r="J9">
-        <v>0.8189686566612266</v>
+        <v>0.8189686566612338</v>
       </c>
       <c r="K9">
-        <v>0.6482652249235272</v>
+        <v>0.648265224923577</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.128582810037244</v>
+        <v>4.12858281003696</v>
       </c>
       <c r="C10">
-        <v>0.5775011036448348</v>
+        <v>0.5775011036444653</v>
       </c>
       <c r="D10">
-        <v>0.2141751212124916</v>
+        <v>0.21417512121252</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.05244602558017</v>
+        <v>10.05244602557997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6161800397013124</v>
+        <v>0.6161800397012982</v>
       </c>
       <c r="J10">
-        <v>1.00724668087696</v>
+        <v>1.007246680876975</v>
       </c>
       <c r="K10">
-        <v>0.7994134573176268</v>
+        <v>0.7994134573176765</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.496153886037121</v>
+        <v>4.496153886037405</v>
       </c>
       <c r="C11">
-        <v>0.6297519203980073</v>
+        <v>0.6297519203974673</v>
       </c>
       <c r="D11">
-        <v>0.2304067785856176</v>
+        <v>0.230406778585305</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.85642599644109</v>
+        <v>10.85642599644126</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6702564685984527</v>
+        <v>0.6702564685985237</v>
       </c>
       <c r="J11">
-        <v>1.097727205403515</v>
+        <v>1.097727205403501</v>
       </c>
       <c r="K11">
-        <v>0.8723823132809372</v>
+        <v>0.872382313280923</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.638784716257931</v>
+        <v>4.63878471625776</v>
       </c>
       <c r="C12">
-        <v>0.6500741396356204</v>
+        <v>0.6500741396351373</v>
       </c>
       <c r="D12">
-        <v>0.2367203169632575</v>
+        <v>0.2367203169634706</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.16802649231818</v>
+        <v>11.16802649231812</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6912644371147039</v>
+        <v>0.691264437114711</v>
       </c>
       <c r="J12">
-        <v>1.132852272069329</v>
+        <v>1.132852272069286</v>
       </c>
       <c r="K12">
-        <v>0.9007691795240618</v>
+        <v>0.9007691795240191</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.607901501398885</v>
+        <v>4.607901501398771</v>
       </c>
       <c r="C13">
-        <v>0.6456715454424113</v>
+        <v>0.6456715454428377</v>
       </c>
       <c r="D13">
-        <v>0.235352539631478</v>
+        <v>0.2353525396314495</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.10057490495956</v>
+        <v>11.10057490495967</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6867145029867388</v>
+        <v>0.6867145029867672</v>
       </c>
       <c r="J13">
-        <v>1.125246040889408</v>
+        <v>1.125246040889436</v>
       </c>
       <c r="K13">
-        <v>0.8946192077943067</v>
+        <v>0.8946192077943493</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.507814958978031</v>
+        <v>4.507814958977633</v>
       </c>
       <c r="C14">
-        <v>0.6314123877481279</v>
+        <v>0.63141238774719</v>
       </c>
       <c r="D14">
-        <v>0.2309226311535895</v>
+        <v>0.2309226311537742</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6719735002979235</v>
+        <v>0.6719735002979306</v>
       </c>
       <c r="J14">
         <v>1.100598593752267</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.446979125788232</v>
+        <v>4.446979125788175</v>
       </c>
       <c r="C15">
-        <v>0.6227516904029926</v>
+        <v>0.622751690403021</v>
       </c>
       <c r="D15">
-        <v>0.2282320546482453</v>
+        <v>0.2282320546480179</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.74894699076179</v>
+        <v>10.74894699076168</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0.6630167510864524</v>
       </c>
       <c r="J15">
-        <v>1.085619198730996</v>
+        <v>1.085619198731067</v>
       </c>
       <c r="K15">
-        <v>0.8626048720587249</v>
+        <v>0.8626048720587534</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.105003321723302</v>
+        <v>4.105003321723359</v>
       </c>
       <c r="C16">
-        <v>0.574154933756148</v>
+        <v>0.5741549337562049</v>
       </c>
       <c r="D16">
-        <v>0.2131357119478565</v>
+        <v>0.2131357119479134</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.00082444290973</v>
+        <v>10.00082444290953</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6127141021832117</v>
+        <v>0.6127141021832188</v>
       </c>
       <c r="J16">
-        <v>1.001444258487481</v>
+        <v>1.00144425848741</v>
       </c>
       <c r="K16">
-        <v>0.7947415267788642</v>
+        <v>0.79474152677885</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.900589335614598</v>
+        <v>3.900589335614939</v>
       </c>
       <c r="C17">
-        <v>0.5451736342342315</v>
+        <v>0.5451736342337483</v>
       </c>
       <c r="D17">
-        <v>0.2041337974140305</v>
+        <v>0.2041337974142152</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.553076206894161</v>
+        <v>9.553076206894275</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5826824410309825</v>
+        <v>0.5826824410310536</v>
       </c>
       <c r="J17">
-        <v>0.9511510329231783</v>
+        <v>0.9511510329231925</v>
       </c>
       <c r="K17">
-        <v>0.754284222039999</v>
+        <v>0.7542842220399919</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.784788613316607</v>
+        <v>3.784788613316664</v>
       </c>
       <c r="C18">
-        <v>0.5287764703490723</v>
+        <v>0.5287764703486459</v>
       </c>
       <c r="D18">
-        <v>0.1990410328119623</v>
+        <v>0.1990410328121897</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.299241807092869</v>
+        <v>9.299241807092841</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5656813142189989</v>
+        <v>0.5656813142190344</v>
       </c>
       <c r="J18">
-        <v>0.922666601572331</v>
+        <v>0.9226666015723879</v>
       </c>
       <c r="K18">
-        <v>0.7313998971258115</v>
+        <v>0.7313998971257831</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.745867142533427</v>
+        <v>3.745867142533598</v>
       </c>
       <c r="C19">
-        <v>0.5232684914520576</v>
+        <v>0.5232684914516312</v>
       </c>
       <c r="D19">
-        <v>0.1973303836938669</v>
+        <v>0.1973303836936395</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.213896382169139</v>
+        <v>9.213896382169111</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5599690099602981</v>
+        <v>0.5599690099602626</v>
       </c>
       <c r="J19">
         <v>0.9130938185552537</v>
       </c>
       <c r="K19">
-        <v>0.7237138699433885</v>
+        <v>0.7237138699434311</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.922161754624426</v>
+        <v>3.922161754624199</v>
       </c>
       <c r="C20">
-        <v>0.5482298724834891</v>
+        <v>0.5482298724830912</v>
       </c>
       <c r="D20">
-        <v>0.2050830596968609</v>
+        <v>0.205083059696463</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.600348092279063</v>
+        <v>9.600348092278921</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5858505068717506</v>
+        <v>0.5858505068716866</v>
       </c>
       <c r="J20">
-        <v>0.9564578992512054</v>
+        <v>0.9564578992512338</v>
       </c>
       <c r="K20">
-        <v>0.7585500816955388</v>
+        <v>0.7585500816955602</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.537113445313537</v>
+        <v>4.53711344531348</v>
       </c>
       <c r="C21">
-        <v>0.6355851107024932</v>
+        <v>0.6355851107015837</v>
       </c>
       <c r="D21">
-        <v>0.2322189653579017</v>
+        <v>0.232218965358058</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.94593041656236</v>
+        <v>10.94593041656248</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.676287953682241</v>
+        <v>0.6762879536822624</v>
       </c>
       <c r="J21">
-        <v>1.107813226334343</v>
+        <v>1.107813226334372</v>
       </c>
       <c r="K21">
-        <v>0.8805300207780249</v>
+        <v>0.8805300207780533</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.959492780182472</v>
+        <v>4.959492780182586</v>
       </c>
       <c r="C22">
-        <v>0.6958711953244006</v>
+        <v>0.6958711953252532</v>
       </c>
       <c r="D22">
-        <v>0.2509486290213232</v>
+        <v>0.2509486290215932</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7385522926734893</v>
+        <v>0.738552292673468</v>
       </c>
       <c r="J22">
-        <v>1.211865120083004</v>
+        <v>1.211865120082976</v>
       </c>
       <c r="K22">
-        <v>0.9647497813777051</v>
+        <v>0.9647497813777193</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.731928104349436</v>
+        <v>4.731928104349549</v>
       </c>
       <c r="C23">
-        <v>0.6633601901882571</v>
+        <v>0.6633601901878023</v>
       </c>
       <c r="D23">
-        <v>0.2408480069292409</v>
+        <v>0.2408480069292693</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.37139945907569</v>
+        <v>11.37139945907558</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7049909356651725</v>
+        <v>0.7049909356651582</v>
       </c>
       <c r="J23">
         <v>1.15579515195445</v>
       </c>
       <c r="K23">
-        <v>0.9193292012622862</v>
+        <v>0.9193292012623289</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.912403555563344</v>
+        <v>3.912403555563856</v>
       </c>
       <c r="C24">
-        <v>0.5468473309257149</v>
+        <v>0.5468473309261412</v>
       </c>
       <c r="D24">
-        <v>0.2046536435083652</v>
+        <v>0.2046536435081379</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.578965413813364</v>
+        <v>9.578965413813478</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5844174079858746</v>
+        <v>0.5844174079859101</v>
       </c>
       <c r="J24">
         <v>0.9540573383110313</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.094621580401792</v>
+        <v>3.094621580401622</v>
       </c>
       <c r="C25">
-        <v>0.4313201908369706</v>
+        <v>0.4313201908369138</v>
       </c>
       <c r="D25">
-        <v>0.1687779330640353</v>
+        <v>0.1687779330642201</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4645265254816948</v>
+        <v>0.464526525481773</v>
       </c>
       <c r="J25">
         <v>0.7529873487538907</v>
       </c>
       <c r="K25">
-        <v>0.59550876151458</v>
+        <v>0.5955087615145587</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.530789978854671</v>
+        <v>2.530789978854386</v>
       </c>
       <c r="C2">
-        <v>0.3519541149359497</v>
+        <v>0.3519541149358076</v>
       </c>
       <c r="D2">
-        <v>0.1441359033926091</v>
+        <v>0.1441359033927654</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.542002338966</v>
+        <v>6.542002338965972</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3820924665679755</v>
+        <v>0.3820924665679613</v>
       </c>
       <c r="J2">
-        <v>0.6144462652470679</v>
+        <v>0.6144462652470253</v>
       </c>
       <c r="K2">
-        <v>0.4850798069818083</v>
+        <v>0.4850798069818154</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.165491114435952</v>
+        <v>2.165491114436009</v>
       </c>
       <c r="C3">
-        <v>0.3005806861641247</v>
+        <v>0.3005806861641531</v>
       </c>
       <c r="D3">
-        <v>0.1281808368539359</v>
+        <v>0.1281808368533817</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.735787893326034</v>
+        <v>5.735787893326062</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3287722764219225</v>
+        <v>0.328772276421887</v>
       </c>
       <c r="J3">
-        <v>0.5246996112002762</v>
+        <v>0.5246996112002549</v>
       </c>
       <c r="K3">
         <v>0.4137829802394251</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.947599249273253</v>
+        <v>1.947599249273281</v>
       </c>
       <c r="C4">
-        <v>0.2699256806263293</v>
+        <v>0.269925680626514</v>
       </c>
       <c r="D4">
-        <v>0.1186550923584235</v>
+        <v>0.1186550923586225</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.254185476657284</v>
+        <v>5.254185476657398</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2969966016636292</v>
+        <v>0.2969966016636647</v>
       </c>
       <c r="J4">
-        <v>0.4711623436450694</v>
+        <v>0.4711623436450623</v>
       </c>
       <c r="K4">
-        <v>0.371336753272054</v>
+        <v>0.3713367532721179</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.86017311874599</v>
+        <v>1.860173118745877</v>
       </c>
       <c r="C5">
-        <v>0.2576182055745591</v>
+        <v>0.2576182055743601</v>
       </c>
       <c r="D5">
-        <v>0.1148288376101689</v>
+        <v>0.1148288376099487</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.060786975004618</v>
+        <v>5.060786975004589</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2842522552589273</v>
+        <v>0.2842522552589699</v>
       </c>
       <c r="J5">
-        <v>0.4496783387363692</v>
+        <v>0.4496783387363621</v>
       </c>
       <c r="K5">
-        <v>0.3543206286765539</v>
+        <v>0.3543206286765255</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845732043748001</v>
+        <v>1.845732043748058</v>
       </c>
       <c r="C6">
-        <v>0.2555846719484975</v>
+        <v>0.2555846719484265</v>
       </c>
       <c r="D6">
-        <v>0.1141965085430314</v>
+        <v>0.1141965085429888</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2821474009152496</v>
+        <v>0.2821474009152283</v>
       </c>
       <c r="J6">
-        <v>0.4461293876394024</v>
+        <v>0.4461293876394166</v>
       </c>
       <c r="K6">
-        <v>0.3515106508134309</v>
+        <v>0.3515106508134593</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.946414957377755</v>
+        <v>1.946414957377954</v>
       </c>
       <c r="C7">
-        <v>0.2697589976022812</v>
+        <v>0.2697589976028212</v>
       </c>
       <c r="D7">
-        <v>0.1186032806505395</v>
+        <v>0.1186032806507242</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.251566301351886</v>
+        <v>5.251566301351914</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2968239454647019</v>
+        <v>0.2968239454646735</v>
       </c>
       <c r="J7">
         <v>0.4708713307222823</v>
       </c>
       <c r="K7">
-        <v>0.3711061957304267</v>
+        <v>0.3711061957303556</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.40334961386003</v>
+        <v>2.403349613860257</v>
       </c>
       <c r="C8">
-        <v>0.3340312279340765</v>
+        <v>0.3340312279336501</v>
       </c>
       <c r="D8">
-        <v>0.1385703847404542</v>
+        <v>0.1385703847399995</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.260905048643451</v>
+        <v>6.260905048643536</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3634835640922418</v>
+        <v>0.3634835640922702</v>
       </c>
       <c r="J8">
-        <v>0.5831368987697516</v>
+        <v>0.5831368987697587</v>
       </c>
       <c r="K8">
-        <v>0.4601861644284995</v>
+        <v>0.4601861644285492</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.363063992222123</v>
+        <v>3.363063992222351</v>
       </c>
       <c r="C9">
-        <v>0.4691761196165203</v>
+        <v>0.4691761196165487</v>
       </c>
       <c r="D9">
-        <v>0.1805322658752289</v>
+        <v>0.1805322658752857</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.373705807881521</v>
+        <v>8.373705807881464</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5038368726846443</v>
+        <v>0.5038368726846016</v>
       </c>
       <c r="J9">
-        <v>0.8189686566612338</v>
+        <v>0.8189686566612266</v>
       </c>
       <c r="K9">
-        <v>0.648265224923577</v>
+        <v>0.6482652249235272</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.12858281003696</v>
+        <v>4.128582810037244</v>
       </c>
       <c r="C10">
-        <v>0.5775011036444653</v>
+        <v>0.5775011036448348</v>
       </c>
       <c r="D10">
-        <v>0.21417512121252</v>
+        <v>0.2141751212124916</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.05244602557997</v>
+        <v>10.05244602558017</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6161800397012982</v>
+        <v>0.6161800397013124</v>
       </c>
       <c r="J10">
-        <v>1.007246680876975</v>
+        <v>1.00724668087696</v>
       </c>
       <c r="K10">
-        <v>0.7994134573176765</v>
+        <v>0.7994134573176268</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.496153886037405</v>
+        <v>4.496153886037121</v>
       </c>
       <c r="C11">
-        <v>0.6297519203974673</v>
+        <v>0.6297519203980073</v>
       </c>
       <c r="D11">
-        <v>0.230406778585305</v>
+        <v>0.2304067785856176</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.85642599644126</v>
+        <v>10.85642599644109</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6702564685985237</v>
+        <v>0.6702564685984527</v>
       </c>
       <c r="J11">
-        <v>1.097727205403501</v>
+        <v>1.097727205403515</v>
       </c>
       <c r="K11">
-        <v>0.872382313280923</v>
+        <v>0.8723823132809372</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.63878471625776</v>
+        <v>4.638784716257931</v>
       </c>
       <c r="C12">
-        <v>0.6500741396351373</v>
+        <v>0.6500741396356204</v>
       </c>
       <c r="D12">
-        <v>0.2367203169634706</v>
+        <v>0.2367203169632575</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.16802649231812</v>
+        <v>11.16802649231818</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.691264437114711</v>
+        <v>0.6912644371147039</v>
       </c>
       <c r="J12">
-        <v>1.132852272069286</v>
+        <v>1.132852272069329</v>
       </c>
       <c r="K12">
-        <v>0.9007691795240191</v>
+        <v>0.9007691795240618</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.607901501398771</v>
+        <v>4.607901501398885</v>
       </c>
       <c r="C13">
-        <v>0.6456715454428377</v>
+        <v>0.6456715454424113</v>
       </c>
       <c r="D13">
-        <v>0.2353525396314495</v>
+        <v>0.235352539631478</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.10057490495967</v>
+        <v>11.10057490495956</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6867145029867672</v>
+        <v>0.6867145029867388</v>
       </c>
       <c r="J13">
-        <v>1.125246040889436</v>
+        <v>1.125246040889408</v>
       </c>
       <c r="K13">
-        <v>0.8946192077943493</v>
+        <v>0.8946192077943067</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.507814958977633</v>
+        <v>4.507814958978031</v>
       </c>
       <c r="C14">
-        <v>0.63141238774719</v>
+        <v>0.6314123877481279</v>
       </c>
       <c r="D14">
-        <v>0.2309226311537742</v>
+        <v>0.2309226311535895</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6719735002979306</v>
+        <v>0.6719735002979235</v>
       </c>
       <c r="J14">
         <v>1.100598593752267</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.446979125788175</v>
+        <v>4.446979125788232</v>
       </c>
       <c r="C15">
-        <v>0.622751690403021</v>
+        <v>0.6227516904029926</v>
       </c>
       <c r="D15">
-        <v>0.2282320546480179</v>
+        <v>0.2282320546482453</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.74894699076168</v>
+        <v>10.74894699076179</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0.6630167510864524</v>
       </c>
       <c r="J15">
-        <v>1.085619198731067</v>
+        <v>1.085619198730996</v>
       </c>
       <c r="K15">
-        <v>0.8626048720587534</v>
+        <v>0.8626048720587249</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.105003321723359</v>
+        <v>4.105003321723302</v>
       </c>
       <c r="C16">
-        <v>0.5741549337562049</v>
+        <v>0.574154933756148</v>
       </c>
       <c r="D16">
-        <v>0.2131357119479134</v>
+        <v>0.2131357119478565</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.00082444290953</v>
+        <v>10.00082444290973</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6127141021832188</v>
+        <v>0.6127141021832117</v>
       </c>
       <c r="J16">
-        <v>1.00144425848741</v>
+        <v>1.001444258487481</v>
       </c>
       <c r="K16">
-        <v>0.79474152677885</v>
+        <v>0.7947415267788642</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.900589335614939</v>
+        <v>3.900589335614598</v>
       </c>
       <c r="C17">
-        <v>0.5451736342337483</v>
+        <v>0.5451736342342315</v>
       </c>
       <c r="D17">
-        <v>0.2041337974142152</v>
+        <v>0.2041337974140305</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.553076206894275</v>
+        <v>9.553076206894161</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5826824410310536</v>
+        <v>0.5826824410309825</v>
       </c>
       <c r="J17">
-        <v>0.9511510329231925</v>
+        <v>0.9511510329231783</v>
       </c>
       <c r="K17">
-        <v>0.7542842220399919</v>
+        <v>0.754284222039999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.784788613316664</v>
+        <v>3.784788613316607</v>
       </c>
       <c r="C18">
-        <v>0.5287764703486459</v>
+        <v>0.5287764703490723</v>
       </c>
       <c r="D18">
-        <v>0.1990410328121897</v>
+        <v>0.1990410328119623</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.299241807092841</v>
+        <v>9.299241807092869</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5656813142190344</v>
+        <v>0.5656813142189989</v>
       </c>
       <c r="J18">
-        <v>0.9226666015723879</v>
+        <v>0.922666601572331</v>
       </c>
       <c r="K18">
-        <v>0.7313998971257831</v>
+        <v>0.7313998971258115</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.745867142533598</v>
+        <v>3.745867142533427</v>
       </c>
       <c r="C19">
-        <v>0.5232684914516312</v>
+        <v>0.5232684914520576</v>
       </c>
       <c r="D19">
-        <v>0.1973303836936395</v>
+        <v>0.1973303836938669</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.213896382169111</v>
+        <v>9.213896382169139</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5599690099602626</v>
+        <v>0.5599690099602981</v>
       </c>
       <c r="J19">
         <v>0.9130938185552537</v>
       </c>
       <c r="K19">
-        <v>0.7237138699434311</v>
+        <v>0.7237138699433885</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.922161754624199</v>
+        <v>3.922161754624426</v>
       </c>
       <c r="C20">
-        <v>0.5482298724830912</v>
+        <v>0.5482298724834891</v>
       </c>
       <c r="D20">
-        <v>0.205083059696463</v>
+        <v>0.2050830596968609</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.600348092278921</v>
+        <v>9.600348092279063</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5858505068716866</v>
+        <v>0.5858505068717506</v>
       </c>
       <c r="J20">
-        <v>0.9564578992512338</v>
+        <v>0.9564578992512054</v>
       </c>
       <c r="K20">
-        <v>0.7585500816955602</v>
+        <v>0.7585500816955388</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.53711344531348</v>
+        <v>4.537113445313537</v>
       </c>
       <c r="C21">
-        <v>0.6355851107015837</v>
+        <v>0.6355851107024932</v>
       </c>
       <c r="D21">
-        <v>0.232218965358058</v>
+        <v>0.2322189653579017</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.94593041656248</v>
+        <v>10.94593041656236</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6762879536822624</v>
+        <v>0.676287953682241</v>
       </c>
       <c r="J21">
-        <v>1.107813226334372</v>
+        <v>1.107813226334343</v>
       </c>
       <c r="K21">
-        <v>0.8805300207780533</v>
+        <v>0.8805300207780249</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.959492780182586</v>
+        <v>4.959492780182472</v>
       </c>
       <c r="C22">
-        <v>0.6958711953252532</v>
+        <v>0.6958711953244006</v>
       </c>
       <c r="D22">
-        <v>0.2509486290215932</v>
+        <v>0.2509486290213232</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.738552292673468</v>
+        <v>0.7385522926734893</v>
       </c>
       <c r="J22">
-        <v>1.211865120082976</v>
+        <v>1.211865120083004</v>
       </c>
       <c r="K22">
-        <v>0.9647497813777193</v>
+        <v>0.9647497813777051</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.731928104349549</v>
+        <v>4.731928104349436</v>
       </c>
       <c r="C23">
-        <v>0.6633601901878023</v>
+        <v>0.6633601901882571</v>
       </c>
       <c r="D23">
-        <v>0.2408480069292693</v>
+        <v>0.2408480069292409</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.37139945907558</v>
+        <v>11.37139945907569</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7049909356651582</v>
+        <v>0.7049909356651725</v>
       </c>
       <c r="J23">
         <v>1.15579515195445</v>
       </c>
       <c r="K23">
-        <v>0.9193292012623289</v>
+        <v>0.9193292012622862</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.912403555563856</v>
+        <v>3.912403555563344</v>
       </c>
       <c r="C24">
-        <v>0.5468473309261412</v>
+        <v>0.5468473309257149</v>
       </c>
       <c r="D24">
-        <v>0.2046536435081379</v>
+        <v>0.2046536435083652</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.578965413813478</v>
+        <v>9.578965413813364</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5844174079859101</v>
+        <v>0.5844174079858746</v>
       </c>
       <c r="J24">
         <v>0.9540573383110313</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.094621580401622</v>
+        <v>3.094621580401792</v>
       </c>
       <c r="C25">
-        <v>0.4313201908369138</v>
+        <v>0.4313201908369706</v>
       </c>
       <c r="D25">
-        <v>0.1687779330642201</v>
+        <v>0.1687779330640353</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.464526525481773</v>
+        <v>0.4645265254816948</v>
       </c>
       <c r="J25">
         <v>0.7529873487538907</v>
       </c>
       <c r="K25">
-        <v>0.5955087615145587</v>
+        <v>0.59550876151458</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.530789978854386</v>
+        <v>2.507965115469858</v>
       </c>
       <c r="C2">
-        <v>0.3519541149358076</v>
+        <v>0.3422018882862687</v>
       </c>
       <c r="D2">
-        <v>0.1441359033927654</v>
+        <v>0.1481552351041842</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.542002338965972</v>
+        <v>6.554576035198693</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007833279809924258</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3820924665679613</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6144462652470253</v>
+        <v>0.3803800891830349</v>
       </c>
       <c r="K2">
-        <v>0.4850798069818154</v>
+        <v>0.6070933149317099</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4826191976104965</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.165491114436009</v>
+        <v>2.147329014919592</v>
       </c>
       <c r="C3">
-        <v>0.3005806861641531</v>
+        <v>0.2918808014754717</v>
       </c>
       <c r="D3">
-        <v>0.1281808368533817</v>
+        <v>0.1322498429155416</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.735787893326062</v>
+        <v>5.75493690346994</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007947188307680888</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.328772276421887</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5246996112002549</v>
+        <v>0.3273402136953791</v>
       </c>
       <c r="K3">
-        <v>0.4137829802394251</v>
+        <v>0.5186322866819424</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4117380551424006</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.947599249273281</v>
+        <v>1.932272152237431</v>
       </c>
       <c r="C4">
-        <v>0.269925680626514</v>
+        <v>0.2618702931005146</v>
       </c>
       <c r="D4">
-        <v>0.1186550923586225</v>
+        <v>0.1227492143813294</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.254185476657398</v>
+        <v>5.277238814027186</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008018308427985242</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2969966016636647</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4711623436450623</v>
+        <v>0.2957256031020563</v>
       </c>
       <c r="K4">
-        <v>0.3713367532721179</v>
+        <v>0.4658785727144235</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3695328635733688</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.860173118745877</v>
+        <v>1.845998338559724</v>
       </c>
       <c r="C5">
-        <v>0.2576182055743601</v>
+        <v>0.249825839318234</v>
       </c>
       <c r="D5">
-        <v>0.1148288376099487</v>
+        <v>0.1189320220794272</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.060786975004589</v>
+        <v>5.085405796626532</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008047627173167324</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2842522552589699</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4496783387363621</v>
+        <v>0.2830446250454699</v>
       </c>
       <c r="K5">
-        <v>0.3543206286765255</v>
+        <v>0.4447134800229122</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3526121256240771</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845732043748058</v>
+        <v>1.83174853215391</v>
       </c>
       <c r="C6">
-        <v>0.2555846719484265</v>
+        <v>0.2478360243195539</v>
       </c>
       <c r="D6">
-        <v>0.1141965085429888</v>
+        <v>0.1183011317434861</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.028831991334471</v>
+        <v>5.05370942339988</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008052516949854649</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2821474009152283</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4461293876394166</v>
+        <v>0.2809501694048393</v>
       </c>
       <c r="K6">
-        <v>0.3515106508134593</v>
+        <v>0.4412174885591966</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3498178342978306</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.946414957377954</v>
+        <v>1.931103408015218</v>
       </c>
       <c r="C7">
-        <v>0.2697589976028212</v>
+        <v>0.2617071547567633</v>
       </c>
       <c r="D7">
-        <v>0.1186032806507242</v>
+        <v>0.1226975294221191</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.251566301351914</v>
+        <v>5.274640845384596</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008018702416437127</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2968239454646735</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4708713307222823</v>
+        <v>0.2955538100748356</v>
       </c>
       <c r="K7">
-        <v>0.3711061957303556</v>
+        <v>0.4655918610461143</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3693036030618231</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.403349613860257</v>
+        <v>2.382140934480731</v>
       </c>
       <c r="C8">
-        <v>0.3340312279336501</v>
+        <v>0.3246427118211273</v>
       </c>
       <c r="D8">
-        <v>0.1385703847399995</v>
+        <v>0.1426080811555295</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.260905048643536</v>
+        <v>6.275778661224791</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007872336198293189</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3634835640922702</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5831368987697587</v>
+        <v>0.3618704705134022</v>
       </c>
       <c r="K8">
-        <v>0.4601861644285492</v>
+        <v>0.5762291443153345</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4578723139233958</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.363063992222351</v>
+        <v>3.329842575747819</v>
       </c>
       <c r="C9">
-        <v>0.4691761196165487</v>
+        <v>0.457109038841395</v>
       </c>
       <c r="D9">
-        <v>0.1805322658752857</v>
+        <v>0.1844060932233589</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.373705807881464</v>
+        <v>8.37100376751124</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007592577806013693</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5038368726846016</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8189686566612266</v>
+        <v>0.5014344828134512</v>
       </c>
       <c r="K9">
-        <v>0.6482652249235272</v>
+        <v>0.8087617844158643</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.6447943108847696</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.128582810037244</v>
+        <v>4.085852763678758</v>
       </c>
       <c r="C10">
-        <v>0.5775011036448348</v>
+        <v>0.5633515460762908</v>
       </c>
       <c r="D10">
-        <v>0.2141751212124916</v>
+        <v>0.2178774970746531</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.05244602558017</v>
+        <v>10.03512897189907</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007387980175034315</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6161800397013124</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.00724668087696</v>
+        <v>0.6130729585187638</v>
       </c>
       <c r="K10">
-        <v>0.7994134573176268</v>
+        <v>0.9944433706803295</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.7949206033431651</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.496153886037121</v>
+        <v>4.448819905021992</v>
       </c>
       <c r="C11">
-        <v>0.6297519203980073</v>
+        <v>0.6146050460240531</v>
       </c>
       <c r="D11">
-        <v>0.2304067785856176</v>
+        <v>0.234014014574214</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.85642599644109</v>
+        <v>10.83183970927638</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007294118538965164</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6702564685984527</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.097727205403515</v>
+        <v>0.6667842393852084</v>
       </c>
       <c r="K11">
-        <v>0.8723823132809372</v>
+        <v>1.083671048598973</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.8673617447175985</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.638784716257931</v>
+        <v>4.589652144802187</v>
       </c>
       <c r="C12">
-        <v>0.6500741396356204</v>
+        <v>0.6345395090982322</v>
       </c>
       <c r="D12">
-        <v>0.2367203169632575</v>
+        <v>0.2402883443675563</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.16802649231818</v>
+        <v>11.1405690122084</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007258357562009098</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6912644371147039</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.132852272069329</v>
+        <v>0.6876454423033778</v>
       </c>
       <c r="K12">
-        <v>0.9007691795240618</v>
+        <v>1.118307397994272</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.8955366875361506</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.607901501398885</v>
+        <v>4.559159035386699</v>
       </c>
       <c r="C13">
-        <v>0.6456715454424113</v>
+        <v>0.6302209300564812</v>
       </c>
       <c r="D13">
-        <v>0.235352539631478</v>
+        <v>0.2389291666989664</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.10057490495956</v>
+        <v>11.07374162189427</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007266070912465966</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6867145029867388</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.125246040889408</v>
+        <v>0.6831275351109483</v>
       </c>
       <c r="K13">
-        <v>0.8946192077943067</v>
+        <v>1.110807133275159</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.8894329548163142</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.507814958978031</v>
+        <v>4.460334216398167</v>
       </c>
       <c r="C14">
-        <v>0.6314123877481279</v>
+        <v>0.6162338345759792</v>
       </c>
       <c r="D14">
-        <v>0.2309226311535895</v>
+        <v>0.2345267101086819</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.881909417413</v>
+        <v>10.85708949012286</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007291181502822043</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6719735002979235</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.100598593752267</v>
+        <v>0.6684893811695218</v>
       </c>
       <c r="K14">
-        <v>0.8747015999693559</v>
+        <v>1.08650254352267</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.8696638597957786</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.446979125788232</v>
+        <v>4.400263509897513</v>
       </c>
       <c r="C15">
-        <v>0.6227516904029926</v>
+        <v>0.6077383673621455</v>
       </c>
       <c r="D15">
-        <v>0.2282320546482453</v>
+        <v>0.2318525092630352</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.74894699076179</v>
+        <v>10.72534385024267</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.000730653063985909</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6630167510864524</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.085619198730996</v>
+        <v>0.6595944504876528</v>
       </c>
       <c r="K15">
-        <v>0.8626048720587249</v>
+        <v>1.071731158413598</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.857656417910178</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.105003321723302</v>
+        <v>4.062567357760202</v>
       </c>
       <c r="C16">
-        <v>0.574154933756148</v>
+        <v>0.5600693180846008</v>
       </c>
       <c r="D16">
-        <v>0.2131357119478565</v>
+        <v>0.2168439041895027</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.00082444290973</v>
+        <v>9.983967655759074</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000739408997118627</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6127141021832117</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.001444258487481</v>
+        <v>0.6096298240781266</v>
       </c>
       <c r="K16">
-        <v>0.7947415267788642</v>
+        <v>0.9887210681043825</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.7902816567944839</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.900589335614598</v>
+        <v>3.860698064064024</v>
       </c>
       <c r="C17">
-        <v>0.5451736342342315</v>
+        <v>0.5316425213209754</v>
       </c>
       <c r="D17">
-        <v>0.2041337974140305</v>
+        <v>0.2078909789401848</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.553076206894161</v>
+        <v>9.540180889654891</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007447535294710227</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5826824410309825</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9511510329231783</v>
+        <v>0.5797928256336604</v>
       </c>
       <c r="K17">
-        <v>0.754284222039999</v>
+        <v>0.9391215943778235</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.7501061086899696</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.784788613316607</v>
+        <v>3.746335901846521</v>
       </c>
       <c r="C18">
-        <v>0.5287764703490723</v>
+        <v>0.5155598031064699</v>
       </c>
       <c r="D18">
-        <v>0.1990410328119623</v>
+        <v>0.2028248313286269</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.299241807092869</v>
+        <v>9.288568761627175</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007478208725609055</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5656813142189989</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.922666601572331</v>
+        <v>0.5628996237312478</v>
       </c>
       <c r="K18">
-        <v>0.7313998971258115</v>
+        <v>0.9110297362453394</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.7273781587861521</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.745867142533427</v>
+        <v>3.707897586441675</v>
       </c>
       <c r="C19">
-        <v>0.5232684914520576</v>
+        <v>0.510157594250586</v>
       </c>
       <c r="D19">
-        <v>0.1973303836938669</v>
+        <v>0.2011229446501801</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.213896382169139</v>
+        <v>9.203966852012371</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000748858555509605</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5599690099602981</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9130938185552537</v>
+        <v>0.5572232203253549</v>
       </c>
       <c r="K19">
-        <v>0.7237138699433885</v>
+        <v>0.9015888660339613</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.7197441791305721</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.922161754624426</v>
+        <v>3.882002287405442</v>
       </c>
       <c r="C20">
-        <v>0.5482298724834891</v>
+        <v>0.5346402148346954</v>
       </c>
       <c r="D20">
-        <v>0.2050830596968609</v>
+        <v>0.2088351922124474</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.600348092279063</v>
+        <v>9.587037077026167</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007441853557024785</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5858505068717506</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9564578992512054</v>
+        <v>0.5829406004284934</v>
       </c>
       <c r="K20">
-        <v>0.7585500816955388</v>
+        <v>0.9443553027661267</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.7543425821953633</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.537113445313537</v>
+        <v>4.489263745832034</v>
       </c>
       <c r="C21">
-        <v>0.6355851107024932</v>
+        <v>0.6203269478202742</v>
       </c>
       <c r="D21">
-        <v>0.2322189653579017</v>
+        <v>0.2358150742184506</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.94593041656236</v>
+        <v>10.92052261193339</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007283812763391231</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.676287953682241</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.107813226334343</v>
+        <v>0.6727738758788249</v>
       </c>
       <c r="K21">
-        <v>0.8805300207780249</v>
+        <v>1.093616896327845</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.8754490163601361</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.959492780182472</v>
+        <v>4.906284609161332</v>
       </c>
       <c r="C22">
-        <v>0.6958711953244006</v>
+        <v>0.6794616675166765</v>
       </c>
       <c r="D22">
-        <v>0.2509486290213232</v>
+        <v>0.2544237072731761</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.86788961670004</v>
+        <v>11.83386433710092</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007179189164168584</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7385522926734893</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.211865120083004</v>
+        <v>0.7345923341532838</v>
       </c>
       <c r="K22">
-        <v>0.9647497813777051</v>
+        <v>1.196214272138619</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9590251782724266</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.731928104349436</v>
+        <v>4.681616607408387</v>
       </c>
       <c r="C23">
-        <v>0.6633601901882571</v>
+        <v>0.6475719514942</v>
       </c>
       <c r="D23">
-        <v>0.2408480069292409</v>
+        <v>0.2443897270699722</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.37139945907569</v>
+        <v>11.34205080954234</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007235191676477097</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7049909356651725</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.15579515195445</v>
+        <v>0.7012745030174941</v>
       </c>
       <c r="K23">
-        <v>0.9193292012622862</v>
+        <v>1.140930153082763</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9139560518539582</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.912403555563344</v>
+        <v>3.872365414585715</v>
       </c>
       <c r="C24">
-        <v>0.5468473309257149</v>
+        <v>0.5332841546814961</v>
       </c>
       <c r="D24">
-        <v>0.2046536435083652</v>
+        <v>0.2084080634514578</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.578965413813364</v>
+        <v>9.56584250558592</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007444422430406791</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5844174079858746</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9540573383110313</v>
+        <v>0.5815166874030311</v>
       </c>
       <c r="K24">
-        <v>0.7566203289464752</v>
+        <v>0.9419878357897744</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.7524261321849366</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.094621580401792</v>
+        <v>3.064734260998875</v>
       </c>
       <c r="C25">
-        <v>0.4313201908369706</v>
+        <v>0.4199909532333379</v>
       </c>
       <c r="D25">
-        <v>0.1687779330640353</v>
+        <v>0.1727034135346628</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.783659324401384</v>
+        <v>7.785942125768798</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007667806391858669</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4645265254816948</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7529873487538907</v>
+        <v>0.4623548608186354</v>
       </c>
       <c r="K25">
-        <v>0.59550876151458</v>
+        <v>0.7436939097336577</v>
       </c>
       <c r="L25">
+        <v>0.5923741868093231</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.507965115469858</v>
+        <v>4.103672562805343</v>
       </c>
       <c r="C2">
-        <v>0.3422018882862687</v>
+        <v>0.8578613682282139</v>
       </c>
       <c r="D2">
-        <v>0.1481552351041842</v>
+        <v>0.06167497354867635</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.554576035198693</v>
+        <v>2.575395318380373</v>
       </c>
       <c r="G2">
-        <v>0.0007833279809924258</v>
+        <v>0.000794062497079584</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3803800891830349</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6070933149317099</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4826191976104965</v>
+        <v>0.136116799248029</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6056660692233393</v>
+      </c>
+      <c r="N2">
+        <v>1.354624930242821</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.147329014919592</v>
+        <v>3.558238506848227</v>
       </c>
       <c r="C3">
-        <v>0.2918808014754717</v>
+        <v>0.7400409546643516</v>
       </c>
       <c r="D3">
-        <v>0.1322498429155416</v>
+        <v>0.06201453078200103</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.75493690346994</v>
+        <v>2.317386436352862</v>
       </c>
       <c r="G3">
-        <v>0.0007947188307680888</v>
+        <v>0.000803892316878611</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3273402136953791</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5186322866819424</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4117380551424006</v>
+        <v>0.1256535256828641</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.529076930913547</v>
+      </c>
+      <c r="N3">
+        <v>1.37870508431628</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.932272152237431</v>
+        <v>3.230266327438756</v>
       </c>
       <c r="C4">
-        <v>0.2618702931005146</v>
+        <v>0.6688566388054085</v>
       </c>
       <c r="D4">
-        <v>0.1227492143813294</v>
+        <v>0.06235763385016568</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.277238814027186</v>
+        <v>2.164879804992012</v>
       </c>
       <c r="G4">
-        <v>0.0008018308427985242</v>
+        <v>0.0008100754247020552</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2957256031020563</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4658785727144235</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3695328635733688</v>
+        <v>0.1194527163180439</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4830967670313342</v>
+      </c>
+      <c r="N4">
+        <v>1.395655959744289</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.845998338559724</v>
+        <v>3.098125732723759</v>
       </c>
       <c r="C5">
-        <v>0.249825839318234</v>
+        <v>0.6400886208231782</v>
       </c>
       <c r="D5">
-        <v>0.1189320220794272</v>
+        <v>0.06252863757828919</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.085405796626532</v>
+        <v>2.104057412805474</v>
       </c>
       <c r="G5">
-        <v>0.0008047627173167324</v>
+        <v>0.000812634473675413</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2830446250454699</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4447134800229122</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3526121256240771</v>
+        <v>0.1169772518072349</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4645899248105323</v>
+      </c>
+      <c r="N5">
+        <v>1.403072897633535</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.83174853215391</v>
+        <v>3.076268784172498</v>
       </c>
       <c r="C6">
-        <v>0.2478360243195539</v>
+        <v>0.6353248212645894</v>
       </c>
       <c r="D6">
-        <v>0.1183011317434861</v>
+        <v>0.06255884354742847</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.05370942339988</v>
+        <v>2.094033513193352</v>
       </c>
       <c r="G6">
-        <v>0.0008052516949854649</v>
+        <v>0.0008130618433003221</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2809501694048393</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4412174885591966</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3498178342978306</v>
+        <v>0.1165691748836011</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4615299011677365</v>
+      </c>
+      <c r="N6">
+        <v>1.404334268935457</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.931103408015218</v>
+        <v>3.22847840598979</v>
       </c>
       <c r="C7">
-        <v>0.2617071547567633</v>
+        <v>0.668467754637561</v>
       </c>
       <c r="D7">
-        <v>0.1226975294221191</v>
+        <v>0.06235981711205341</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.274640845384596</v>
+        <v>2.16405436913432</v>
       </c>
       <c r="G7">
-        <v>0.0008018702416437127</v>
+        <v>0.0008101097745665933</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2955538100748356</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4655918610461143</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3693036030618231</v>
+        <v>0.119419129237528</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4828462850557926</v>
+      </c>
+      <c r="N7">
+        <v>1.395753969082975</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.382140934480731</v>
+        <v>3.914023128563713</v>
       </c>
       <c r="C8">
-        <v>0.3246427118211273</v>
+        <v>0.8169642377630169</v>
       </c>
       <c r="D8">
-        <v>0.1426080811555295</v>
+        <v>0.06176242044147529</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.275778661224791</v>
+        <v>2.485104821283073</v>
       </c>
       <c r="G8">
-        <v>0.0007872336198293189</v>
+        <v>0.0007974226301781358</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3618704705134022</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5762291443153345</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4578723139233958</v>
+        <v>0.132459590075932</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5790204814428961</v>
+      </c>
+      <c r="N8">
+        <v>1.362456018496786</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.329842575747819</v>
+        <v>5.325079876468806</v>
       </c>
       <c r="C9">
-        <v>0.457109038841395</v>
+        <v>1.119958681439584</v>
       </c>
       <c r="D9">
-        <v>0.1844060932233589</v>
+        <v>0.06179582861883404</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.37100376751124</v>
+        <v>3.169782225822445</v>
       </c>
       <c r="G9">
-        <v>0.0007592577806013693</v>
+        <v>0.0007735989392003385</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5014344828134512</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8087617844158643</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6447943108847696</v>
+        <v>0.1600503585149795</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.7775687553601429</v>
+      </c>
+      <c r="N9">
+        <v>1.316126931586709</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.085852763678758</v>
+        <v>6.421202263731743</v>
       </c>
       <c r="C10">
-        <v>0.5633515460762908</v>
+        <v>1.353945053584937</v>
       </c>
       <c r="D10">
-        <v>0.2178774970746531</v>
+        <v>0.06277650052307138</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.03512897189907</v>
+        <v>3.719471775356425</v>
       </c>
       <c r="G10">
-        <v>0.0007387980175034315</v>
+        <v>0.0007565567580009022</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6130729585187638</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9944433706803295</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7949206033431651</v>
+        <v>0.1819367228653164</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.9321413628279913</v>
+      </c>
+      <c r="N10">
+        <v>1.296499040998341</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.448819905021992</v>
+        <v>6.937740849707211</v>
       </c>
       <c r="C11">
-        <v>0.6146050460240531</v>
+        <v>1.463984506695567</v>
       </c>
       <c r="D11">
-        <v>0.234014014574214</v>
+        <v>0.0634906292979025</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.83183970927638</v>
+        <v>3.983146797758877</v>
       </c>
       <c r="G11">
-        <v>0.0007294118538965164</v>
+        <v>0.000748855794435066</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6667842393852084</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.083671048598973</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8673617447175985</v>
+        <v>0.1923448923018185</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.005046792744153</v>
+      </c>
+      <c r="N11">
+        <v>1.291459279596012</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.589652144802187</v>
+        <v>7.136408742155652</v>
       </c>
       <c r="C12">
-        <v>0.6345395090982322</v>
+        <v>1.506283072706367</v>
       </c>
       <c r="D12">
-        <v>0.2402883443675563</v>
+        <v>0.06380573022963887</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.1405690122084</v>
+        <v>4.08529706851786</v>
       </c>
       <c r="G12">
-        <v>0.0007258357562009098</v>
+        <v>0.000745942319494615</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6876454423033778</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.118307397994272</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8955366875361506</v>
+        <v>0.1963610188827261</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.03309541467133</v>
+      </c>
+      <c r="N12">
+        <v>1.290186196296986</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.559159035386699</v>
+        <v>7.093477036451645</v>
       </c>
       <c r="C13">
-        <v>0.6302209300564812</v>
+        <v>1.497143365550642</v>
       </c>
       <c r="D13">
-        <v>0.2389291666989664</v>
+        <v>0.06373577119752127</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.07374162189427</v>
+        <v>4.063188714049971</v>
       </c>
       <c r="G13">
-        <v>0.0007266070912465966</v>
+        <v>0.0007465697507948729</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6831275351109483</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.110807133275159</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8894329548163142</v>
+        <v>0.1954925769363314</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.027033824518114</v>
+      </c>
+      <c r="N13">
+        <v>1.290430773832924</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.460334216398167</v>
+        <v>6.954020839385805</v>
       </c>
       <c r="C14">
-        <v>0.6162338345759792</v>
+        <v>1.467451122911996</v>
       </c>
       <c r="D14">
-        <v>0.2345267101086819</v>
+        <v>0.06351561844555675</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.85708949012286</v>
+        <v>3.99150245420995</v>
       </c>
       <c r="G14">
-        <v>0.0007291181502822043</v>
+        <v>0.0007486160764225022</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6684893811695218</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.08650254352267</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8696638597957786</v>
+        <v>0.1926737415590907</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.007345102057727</v>
+      </c>
+      <c r="N14">
+        <v>1.291341328397522</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.400263509897513</v>
+        <v>6.869015065712574</v>
       </c>
       <c r="C15">
-        <v>0.6077383673621455</v>
+        <v>1.449349312005154</v>
       </c>
       <c r="D15">
-        <v>0.2318525092630352</v>
+        <v>0.06338678716930701</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.72534385024267</v>
+        <v>3.947903516354927</v>
       </c>
       <c r="G15">
-        <v>0.000730653063985909</v>
+        <v>0.000749869710974075</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6595944504876528</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.071731158413598</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.857656417910178</v>
+        <v>0.1909571768855542</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.9953448284888751</v>
+      </c>
+      <c r="N15">
+        <v>1.291984281807714</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.062567357760202</v>
+        <v>6.387845831955303</v>
       </c>
       <c r="C16">
-        <v>0.5600693180846008</v>
+        <v>1.346835249715298</v>
       </c>
       <c r="D16">
-        <v>0.2168439041895027</v>
+        <v>0.06273572431594232</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.983967655759074</v>
+        <v>3.702542218681288</v>
       </c>
       <c r="G16">
-        <v>0.000739408997118627</v>
+        <v>0.000757060686478906</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6096298240781266</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9887210681043825</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7902816567944839</v>
+        <v>0.1812664238997286</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9274345523482665</v>
+      </c>
+      <c r="N16">
+        <v>1.296912894113945</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.860698064064024</v>
+        <v>6.09757649573703</v>
       </c>
       <c r="C17">
-        <v>0.5316425213209754</v>
+        <v>1.284941597564455</v>
       </c>
       <c r="D17">
-        <v>0.2078909789401848</v>
+        <v>0.06240900654533021</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.540180889654891</v>
+        <v>3.555737314966109</v>
       </c>
       <c r="G17">
-        <v>0.0007447535294710227</v>
+        <v>0.0007614822057964155</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5797928256336604</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9391215943778235</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7501061086899696</v>
+        <v>0.1754437500448986</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8864826057515884</v>
+      </c>
+      <c r="N17">
+        <v>1.300982997278226</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.746335901846521</v>
+        <v>5.932273249543641</v>
       </c>
       <c r="C18">
-        <v>0.5155598031064699</v>
+        <v>1.24967300072808</v>
       </c>
       <c r="D18">
-        <v>0.2028248313286269</v>
+        <v>0.06224589036779804</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.288568761627175</v>
+        <v>3.472557373110959</v>
       </c>
       <c r="G18">
-        <v>0.0007478208725609055</v>
+        <v>0.0007640305252289038</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5628996237312478</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9110297362453394</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7273781587861521</v>
+        <v>0.1721365796283436</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8631672033042435</v>
+      </c>
+      <c r="N18">
+        <v>1.303684865146778</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.707897586441675</v>
+        <v>5.876574397464537</v>
       </c>
       <c r="C19">
-        <v>0.510157594250586</v>
+        <v>1.237785394701689</v>
       </c>
       <c r="D19">
-        <v>0.2011229446501801</v>
+        <v>0.06219475186073709</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.203966852012371</v>
+        <v>3.444600573130145</v>
       </c>
       <c r="G19">
-        <v>0.000748858555509605</v>
+        <v>0.0007648943637053468</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5572232203253549</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9015888660339613</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7197441791305721</v>
+        <v>0.1710237452393741</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8553121485068402</v>
+      </c>
+      <c r="N19">
+        <v>1.304659520259136</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.882002287405442</v>
+        <v>6.128301871365863</v>
       </c>
       <c r="C20">
-        <v>0.5346402148346954</v>
+        <v>1.291495274322585</v>
       </c>
       <c r="D20">
-        <v>0.2088351922124474</v>
+        <v>0.06244117806581784</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.587037077026167</v>
+        <v>3.571232391032794</v>
       </c>
       <c r="G20">
-        <v>0.0007441853557024785</v>
+        <v>0.0007610110233527174</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5829406004284934</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9443553027661267</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7543425821953633</v>
+        <v>0.1760591829932991</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8908168038179056</v>
+      </c>
+      <c r="N20">
+        <v>1.300511867722648</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.489263745832034</v>
+        <v>6.994894994100207</v>
       </c>
       <c r="C21">
-        <v>0.6203269478202742</v>
+        <v>1.476154400717348</v>
       </c>
       <c r="D21">
-        <v>0.2358150742184506</v>
+        <v>0.06357901584580361</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.92052261193339</v>
+        <v>4.012492947954684</v>
       </c>
       <c r="G21">
-        <v>0.0007283812763391231</v>
+        <v>0.0007480149885084441</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6727738758788249</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.093616896327845</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8754490163601361</v>
+        <v>0.1934995871756655</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.01311559086885</v>
+      </c>
+      <c r="N21">
+        <v>1.291055964546516</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.906284609161332</v>
+        <v>7.579421821273456</v>
       </c>
       <c r="C22">
-        <v>0.6794616675166765</v>
+        <v>1.600572207844266</v>
       </c>
       <c r="D22">
-        <v>0.2544237072731761</v>
+        <v>0.06458674341788395</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.83386433710092</v>
+        <v>4.314503266683573</v>
       </c>
       <c r="G22">
-        <v>0.0007179189164168584</v>
+        <v>0.0007395343899807886</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7345923341532838</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.196214272138619</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9590251782724266</v>
+        <v>0.2053394049928983</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.095654936862594</v>
+      </c>
+      <c r="N22">
+        <v>1.288624146558334</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.681616607408387</v>
+        <v>7.265603910136747</v>
       </c>
       <c r="C23">
-        <v>0.6475719514942</v>
+        <v>1.533784617870879</v>
       </c>
       <c r="D23">
-        <v>0.2443897270699722</v>
+        <v>0.06402241297374189</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.34205080954234</v>
+        <v>4.15193971176123</v>
       </c>
       <c r="G23">
-        <v>0.0007235191676477097</v>
+        <v>0.0007440612072465947</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7012745030174941</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.140930153082763</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9139560518539582</v>
+        <v>0.1989762484199389</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.051337745968354</v>
+      </c>
+      <c r="N23">
+        <v>1.289550580123887</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.872365414585715</v>
+        <v>6.114406054759002</v>
       </c>
       <c r="C24">
-        <v>0.5332841546814961</v>
+        <v>1.288531384428779</v>
       </c>
       <c r="D24">
-        <v>0.2084080634514578</v>
+        <v>0.06242655677916531</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.56584250558592</v>
+        <v>3.564223291897292</v>
       </c>
       <c r="G24">
-        <v>0.0007444422430406791</v>
+        <v>0.000761224024913455</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5815166874030311</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9419878357897744</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7524261321849366</v>
+        <v>0.1757808207575451</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8888566064377628</v>
+      </c>
+      <c r="N24">
+        <v>1.300723743723111</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.064734260998875</v>
+        <v>4.934423061355176</v>
       </c>
       <c r="C25">
-        <v>0.4199909532333379</v>
+        <v>1.036330573972037</v>
       </c>
       <c r="D25">
-        <v>0.1727034135346628</v>
+        <v>0.06163690499754892</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.785942125768798</v>
+        <v>2.977415521126346</v>
       </c>
       <c r="G25">
-        <v>0.0007667806391858669</v>
+        <v>0.0007799483039937345</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4623548608186354</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7436939097336577</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5923741868093231</v>
+        <v>0.1523333321257283</v>
       </c>
       <c r="M25">
+        <v>0.7225396639514372</v>
+      </c>
+      <c r="N25">
+        <v>1.326358964092165</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.103672562805343</v>
+        <v>1.881361437912517</v>
       </c>
       <c r="C2">
-        <v>0.8578613682282139</v>
+        <v>0.1053449598843486</v>
       </c>
       <c r="D2">
-        <v>0.06167497354867635</v>
+        <v>0.006238367167782144</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.575395318380373</v>
+        <v>2.615124267532281</v>
       </c>
       <c r="G2">
-        <v>0.000794062497079584</v>
+        <v>0.0008625022416651448</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.09769764282781779</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.635612263716837</v>
       </c>
       <c r="L2">
-        <v>0.136116799248029</v>
+        <v>0.2242193646728339</v>
       </c>
       <c r="M2">
-        <v>0.6056660692233393</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.354624930242821</v>
+        <v>2.491592409742793</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.558238506848227</v>
+        <v>1.68225144744207</v>
       </c>
       <c r="C3">
-        <v>0.7400409546643516</v>
+        <v>0.09091784406977865</v>
       </c>
       <c r="D3">
-        <v>0.06201453078200103</v>
+        <v>0.005426281505425123</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.317386436352862</v>
+        <v>2.50431646472704</v>
       </c>
       <c r="G3">
-        <v>0.000803892316878611</v>
+        <v>0.0008695761509691871</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.09609061342311875</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.44762647639692</v>
       </c>
       <c r="L3">
-        <v>0.1256535256828641</v>
+        <v>0.2040596735506597</v>
       </c>
       <c r="M3">
-        <v>0.529076930913547</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.37870508431628</v>
+        <v>2.503967157910523</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.230266327438756</v>
+        <v>1.5625205842843</v>
       </c>
       <c r="C4">
-        <v>0.6688566388054085</v>
+        <v>0.08216564673344351</v>
       </c>
       <c r="D4">
-        <v>0.06235763385016568</v>
+        <v>0.004927219891788681</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.164879804992012</v>
+        <v>2.439768485975009</v>
       </c>
       <c r="G4">
-        <v>0.0008100754247020552</v>
+        <v>0.0008740514304291891</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09520496910933218</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.334390422311458</v>
       </c>
       <c r="L4">
-        <v>0.1194527163180439</v>
+        <v>0.1919779840144926</v>
       </c>
       <c r="M4">
-        <v>0.4830967670313342</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.395655959744289</v>
+        <v>2.513687703421127</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.098125732723759</v>
+        <v>1.514307701251312</v>
       </c>
       <c r="C5">
-        <v>0.6400886208231782</v>
+        <v>0.07862139723984285</v>
       </c>
       <c r="D5">
-        <v>0.06252863757828919</v>
+        <v>0.004723690698140715</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.104057412805474</v>
+        <v>2.414287708004338</v>
       </c>
       <c r="G5">
-        <v>0.000812634473675413</v>
+        <v>0.0008759092894280189</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.09486842018435482</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.28874271351134</v>
       </c>
       <c r="L5">
-        <v>0.1169772518072349</v>
+        <v>0.1871235310862076</v>
       </c>
       <c r="M5">
-        <v>0.4645899248105323</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.403072897633535</v>
+        <v>2.518160525803538</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.076268784172498</v>
+        <v>1.506335354957685</v>
       </c>
       <c r="C6">
-        <v>0.6353248212645894</v>
+        <v>0.0780341057426881</v>
       </c>
       <c r="D6">
-        <v>0.06255884354742847</v>
+        <v>0.004689884105232522</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.094033513193352</v>
+        <v>2.410104840923282</v>
       </c>
       <c r="G6">
-        <v>0.0008130618433003221</v>
+        <v>0.0008762198755972709</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09481397806809611</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.281191469419099</v>
       </c>
       <c r="L6">
-        <v>0.1165691748836011</v>
+        <v>0.1863214594611193</v>
       </c>
       <c r="M6">
-        <v>0.4615299011677365</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.404334268935457</v>
+        <v>2.518933519243376</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.22847840598979</v>
+        <v>1.56186809791086</v>
       </c>
       <c r="C7">
-        <v>0.668467754637561</v>
+        <v>0.08211776279307514</v>
       </c>
       <c r="D7">
-        <v>0.06235981711205341</v>
+        <v>0.004924475719809251</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.16405436913432</v>
+        <v>2.43942157968344</v>
       </c>
       <c r="G7">
-        <v>0.0008101097745665933</v>
+        <v>0.0008740763466824583</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.09520033301393482</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.333772857173898</v>
       </c>
       <c r="L7">
-        <v>0.119419129237528</v>
+        <v>0.1919122431937268</v>
       </c>
       <c r="M7">
-        <v>0.4828462850557926</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.395753969082975</v>
+        <v>2.513745981965769</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.914023128563713</v>
+        <v>1.81214950616183</v>
       </c>
       <c r="C8">
-        <v>0.8169642377630169</v>
+        <v>0.1003457511328349</v>
       </c>
       <c r="D8">
-        <v>0.06176242044147529</v>
+        <v>0.005958419096877776</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.485104821283073</v>
+        <v>2.576159899045877</v>
       </c>
       <c r="G8">
-        <v>0.0007974226301781358</v>
+        <v>0.0008649145690708272</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.09712189984384167</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.570307361400467</v>
       </c>
       <c r="L8">
-        <v>0.132459590075932</v>
+        <v>0.21720327442236</v>
       </c>
       <c r="M8">
-        <v>0.5790204814428961</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.362456018496786</v>
+        <v>2.495404935325126</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.325079876468806</v>
+        <v>2.325737471564878</v>
       </c>
       <c r="C9">
-        <v>1.119958681439584</v>
+        <v>0.1371473181533958</v>
       </c>
       <c r="D9">
-        <v>0.06179582861883404</v>
+        <v>0.007985283658424436</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.169782225822445</v>
+        <v>2.874642863746473</v>
       </c>
       <c r="G9">
-        <v>0.0007735989392003385</v>
+        <v>0.000847946636276367</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1017440194211261</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.05413665964187</v>
       </c>
       <c r="L9">
-        <v>0.1600503585149795</v>
+        <v>0.2694270891222317</v>
       </c>
       <c r="M9">
-        <v>0.7775687553601429</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.316126931586709</v>
+        <v>2.477360610850994</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.421202263731743</v>
+        <v>2.721192457019242</v>
       </c>
       <c r="C10">
-        <v>1.353945053584937</v>
+        <v>0.165159770127687</v>
       </c>
       <c r="D10">
-        <v>0.06277650052307138</v>
+        <v>0.009478920309636152</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.719471775356425</v>
+        <v>3.116498041395914</v>
       </c>
       <c r="G10">
-        <v>0.0007565567580009022</v>
+        <v>0.0008360161397383371</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1057396288239261</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.425810560859929</v>
       </c>
       <c r="L10">
-        <v>0.1819367228653164</v>
+        <v>0.309820155112817</v>
       </c>
       <c r="M10">
-        <v>0.9321413628279913</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.296499040998341</v>
+        <v>2.476681233319511</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.937740849707211</v>
+        <v>2.906082088520634</v>
       </c>
       <c r="C11">
-        <v>1.463984506695567</v>
+        <v>0.1781978488799609</v>
       </c>
       <c r="D11">
-        <v>0.0634906292979025</v>
+        <v>0.01016079098019418</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.983146797758877</v>
+        <v>3.232434612183766</v>
       </c>
       <c r="G11">
-        <v>0.000748855794435066</v>
+        <v>0.0008306871590161733</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1077072044018053</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.59941439958078</v>
       </c>
       <c r="L11">
-        <v>0.1923448923018185</v>
+        <v>0.3287402609019523</v>
       </c>
       <c r="M11">
-        <v>1.005046792744153</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.291459279596012</v>
+        <v>2.479516537834925</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.136408742155652</v>
+        <v>2.97691074236792</v>
       </c>
       <c r="C12">
-        <v>1.506283072706367</v>
+        <v>0.1831852248409405</v>
       </c>
       <c r="D12">
-        <v>0.06380573022963887</v>
+        <v>0.0104194834931377</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.08529706851786</v>
+        <v>3.277281584501225</v>
       </c>
       <c r="G12">
-        <v>0.000745942319494615</v>
+        <v>0.0008286817094269594</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.108475659709903</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.665897599622156</v>
       </c>
       <c r="L12">
-        <v>0.1963610188827261</v>
+        <v>0.3359928737635443</v>
       </c>
       <c r="M12">
-        <v>1.03309541467133</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.290186196296986</v>
+        <v>2.481081201968379</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.093477036451645</v>
+        <v>2.961618631096371</v>
       </c>
       <c r="C13">
-        <v>1.497143365550642</v>
+        <v>0.1821087422773502</v>
       </c>
       <c r="D13">
-        <v>0.06373577119752127</v>
+        <v>0.01036374552147379</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.063188714049971</v>
+        <v>3.267579390553379</v>
       </c>
       <c r="G13">
-        <v>0.0007465697507948729</v>
+        <v>0.000829113089320155</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1083090885228088</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.651544627512351</v>
       </c>
       <c r="L13">
-        <v>0.1954925769363314</v>
+        <v>0.334426817538926</v>
       </c>
       <c r="M13">
-        <v>1.027033824518114</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.290430773832924</v>
+        <v>2.480721722775058</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.954020839385805</v>
+        <v>2.91189228175449</v>
       </c>
       <c r="C14">
-        <v>1.467451122911996</v>
+        <v>0.1786071112315</v>
       </c>
       <c r="D14">
-        <v>0.06351561844555675</v>
+        <v>0.01018206322285309</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.99150245420995</v>
+        <v>3.236104702481242</v>
       </c>
       <c r="G14">
-        <v>0.0007486160764225022</v>
+        <v>0.0008305219283620069</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1077699461163135</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.604868555297543</v>
       </c>
       <c r="L14">
-        <v>0.1926737415590907</v>
+        <v>0.3293351160160256</v>
       </c>
       <c r="M14">
-        <v>1.007345102057727</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.291341328397522</v>
+        <v>2.479635185952787</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.869015065712574</v>
+        <v>2.881542629642809</v>
       </c>
       <c r="C15">
-        <v>1.449349312005154</v>
+        <v>0.1764690340104522</v>
       </c>
       <c r="D15">
-        <v>0.06338678716930701</v>
+        <v>0.01007084491796917</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.947903516354927</v>
+        <v>3.216951472019844</v>
       </c>
       <c r="G15">
-        <v>0.000749869710974075</v>
+        <v>0.0008313864629431369</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1074428072172253</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.57637779903672</v>
       </c>
       <c r="L15">
-        <v>0.1909571768855542</v>
+        <v>0.3262280608474128</v>
       </c>
       <c r="M15">
-        <v>0.9953448284888751</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.291984281807714</v>
+        <v>2.479034817068751</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.387845831955303</v>
+        <v>2.709218038819472</v>
       </c>
       <c r="C16">
-        <v>1.346835249715298</v>
+        <v>0.164314278336704</v>
       </c>
       <c r="D16">
-        <v>0.06273572431594232</v>
+        <v>0.00943441805792844</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.702542218681288</v>
+        <v>3.109048135798673</v>
       </c>
       <c r="G16">
-        <v>0.000757060686478906</v>
+        <v>0.0008363662444082808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1056142115052978</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.414563907234509</v>
       </c>
       <c r="L16">
-        <v>0.1812664238997286</v>
+        <v>0.3085954487381883</v>
       </c>
       <c r="M16">
-        <v>0.9274345523482665</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.296912894113945</v>
+        <v>2.476562438839267</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.09757649573703</v>
+        <v>2.604847578090528</v>
       </c>
       <c r="C17">
-        <v>1.284941597564455</v>
+        <v>0.1569385274138</v>
       </c>
       <c r="D17">
-        <v>0.06240900654533021</v>
+        <v>0.009044697466908502</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.555737314966109</v>
+        <v>3.044431675764386</v>
       </c>
       <c r="G17">
-        <v>0.0007614822057964155</v>
+        <v>0.0008394452486677833</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1045320680587949</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.316518539731192</v>
       </c>
       <c r="L17">
-        <v>0.1754437500448986</v>
+        <v>0.297924552400687</v>
       </c>
       <c r="M17">
-        <v>0.8864826057515884</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.300982997278226</v>
+        <v>2.475877421391033</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.932273249543641</v>
+        <v>2.545280274563083</v>
       </c>
       <c r="C18">
-        <v>1.24967300072808</v>
+        <v>0.1527234555439065</v>
       </c>
       <c r="D18">
-        <v>0.06224589036779804</v>
+        <v>0.008820757630100928</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.472557373110959</v>
+        <v>3.007816633589215</v>
       </c>
       <c r="G18">
-        <v>0.0007640305252289038</v>
+        <v>0.0008412255643736751</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1039236431570245</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.260545536045839</v>
       </c>
       <c r="L18">
-        <v>0.1721365796283436</v>
+        <v>0.2918376132866456</v>
       </c>
       <c r="M18">
-        <v>0.8631672033042435</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.303684865146778</v>
+        <v>2.475776822496655</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.876574397464537</v>
+        <v>2.525188685421085</v>
       </c>
       <c r="C19">
-        <v>1.237785394701689</v>
+        <v>0.1513007661514081</v>
       </c>
       <c r="D19">
-        <v>0.06219475186073709</v>
+        <v>0.008744968957056898</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.444600573130145</v>
+        <v>2.995511283058732</v>
       </c>
       <c r="G19">
-        <v>0.0007648943637053468</v>
+        <v>0.000841830001843851</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1037199923170817</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.24166353679496</v>
       </c>
       <c r="L19">
-        <v>0.1710237452393741</v>
+        <v>0.2897851075114062</v>
       </c>
       <c r="M19">
-        <v>0.8553121485068402</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.304659520259136</v>
+        <v>2.4757920367569</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.128301871365863</v>
+        <v>2.615909318917716</v>
       </c>
       <c r="C20">
-        <v>1.291495274322585</v>
+        <v>0.1577208137210278</v>
       </c>
       <c r="D20">
-        <v>0.06244117806581784</v>
+        <v>0.009086160500512364</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.571232391032794</v>
+        <v>3.051252571592926</v>
       </c>
       <c r="G20">
-        <v>0.0007610110233527174</v>
+        <v>0.0008391165264805228</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1046458030446118</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.326911520686167</v>
       </c>
       <c r="L20">
-        <v>0.1760591829932991</v>
+        <v>0.2990551760933187</v>
       </c>
       <c r="M20">
-        <v>0.8908168038179056</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.300511867722648</v>
+        <v>2.475919708080667</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.994894994100207</v>
+        <v>2.926475177521979</v>
       </c>
       <c r="C21">
-        <v>1.476154400717348</v>
+        <v>0.1796341986963768</v>
       </c>
       <c r="D21">
-        <v>0.06357901584580361</v>
+        <v>0.01023541340419243</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.012492947954684</v>
+        <v>3.245323157438435</v>
       </c>
       <c r="G21">
-        <v>0.0007480149885084441</v>
+        <v>0.0008301077919813123</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1079276554799691</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.618557496406538</v>
       </c>
       <c r="L21">
-        <v>0.1934995871756655</v>
+        <v>0.3308282030750718</v>
       </c>
       <c r="M21">
-        <v>1.01311559086885</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.291055964546516</v>
+        <v>2.479940672239863</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.579421821273456</v>
+        <v>3.134250517915007</v>
       </c>
       <c r="C22">
-        <v>1.600572207844266</v>
+        <v>0.1942523278222126</v>
       </c>
       <c r="D22">
-        <v>0.06458674341788395</v>
+        <v>0.01098941259148489</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.314503266683573</v>
+        <v>3.377714476430526</v>
       </c>
       <c r="G22">
-        <v>0.0007395343899807886</v>
+        <v>0.0008242921727801972</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.110209775627041</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.813546901817887</v>
       </c>
       <c r="L22">
-        <v>0.2053394049928983</v>
+        <v>0.3521117096407238</v>
       </c>
       <c r="M22">
-        <v>1.095654936862594</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.288624146558334</v>
+        <v>2.485451657548055</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.265603910136747</v>
+        <v>3.022882833077119</v>
       </c>
       <c r="C23">
-        <v>1.533784617870879</v>
+        <v>0.1864204532370479</v>
       </c>
       <c r="D23">
-        <v>0.06402241297374189</v>
+        <v>0.01058667247570355</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.15193971176123</v>
+        <v>3.306512867950119</v>
       </c>
       <c r="G23">
-        <v>0.0007440612072465947</v>
+        <v>0.000827390054572936</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1089785586575545</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.709043397820494</v>
       </c>
       <c r="L23">
-        <v>0.1989762484199389</v>
+        <v>0.340701471349135</v>
       </c>
       <c r="M23">
-        <v>1.051337745968354</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.289550580123887</v>
+        <v>2.482232584459069</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.114406054759002</v>
+        <v>2.61090695295826</v>
       </c>
       <c r="C24">
-        <v>1.288531384428779</v>
+        <v>0.1573670637071132</v>
       </c>
       <c r="D24">
-        <v>0.06242655677916531</v>
+        <v>0.009067414712404798</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.564223291897292</v>
+        <v>3.048167188813821</v>
       </c>
       <c r="G24">
-        <v>0.000761224024913455</v>
+        <v>0.0008392651100217541</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1045943408769716</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.322211631798893</v>
       </c>
       <c r="L24">
-        <v>0.1757808207575451</v>
+        <v>0.2985438726330898</v>
       </c>
       <c r="M24">
-        <v>0.8888566064377628</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.300723743723111</v>
+        <v>2.475899679817658</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.934423061355176</v>
+        <v>2.183945277067608</v>
       </c>
       <c r="C25">
-        <v>1.036330573972037</v>
+        <v>0.1270462512010937</v>
       </c>
       <c r="D25">
-        <v>0.06163690499754892</v>
+        <v>0.007436583704169664</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.977415521126346</v>
+        <v>2.790250252406722</v>
       </c>
       <c r="G25">
-        <v>0.0007799483039937345</v>
+        <v>0.0008524371888936977</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1003944515193282</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.920715563891946</v>
       </c>
       <c r="L25">
-        <v>0.1523333321257283</v>
+        <v>0.2549765080723176</v>
       </c>
       <c r="M25">
-        <v>0.7225396639514372</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.326358964092165</v>
+        <v>2.480162380976537</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.881361437912517</v>
+        <v>2.191837543572632</v>
       </c>
       <c r="C2">
-        <v>0.1053449598843486</v>
+        <v>0.03121349681488539</v>
       </c>
       <c r="D2">
-        <v>0.006238367167782144</v>
+        <v>0.01447854751909361</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.615124267532281</v>
+        <v>4.308721678539314</v>
       </c>
       <c r="G2">
-        <v>0.0008625022416651448</v>
+        <v>0.002645403414384401</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09769764282781779</v>
+        <v>0.217323224979566</v>
       </c>
       <c r="K2">
-        <v>1.635612263716837</v>
+        <v>1.594393377898427</v>
       </c>
       <c r="L2">
-        <v>0.2242193646728339</v>
+        <v>0.3583678508754957</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.491592409742793</v>
+        <v>4.231800862614222</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.68225144744207</v>
+        <v>2.154203712022706</v>
       </c>
       <c r="C3">
-        <v>0.09091784406977865</v>
+        <v>0.02719316049150677</v>
       </c>
       <c r="D3">
-        <v>0.005426281505425123</v>
+        <v>0.01440869971301595</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.50431646472704</v>
+        <v>4.296154326153413</v>
       </c>
       <c r="G3">
-        <v>0.0008695761509691871</v>
+        <v>0.002649876345347199</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09609061342311875</v>
+        <v>0.2177141506405746</v>
       </c>
       <c r="K3">
-        <v>1.44762647639692</v>
+        <v>1.55572932451571</v>
       </c>
       <c r="L3">
-        <v>0.2040596735506597</v>
+        <v>0.3555524453458148</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.503967157910523</v>
+        <v>4.239546622931925</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.5625205842843</v>
+        <v>2.132284954798621</v>
       </c>
       <c r="C4">
-        <v>0.08216564673344351</v>
+        <v>0.02472898349374475</v>
       </c>
       <c r="D4">
-        <v>0.004927219891788681</v>
+        <v>0.01437448850994016</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.439768485975009</v>
+        <v>4.289990300900115</v>
       </c>
       <c r="G4">
-        <v>0.0008740514304291891</v>
+        <v>0.002652769077497049</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09520496910933218</v>
+        <v>0.2180138728566128</v>
       </c>
       <c r="K4">
-        <v>1.334390422311458</v>
+        <v>1.532916606725195</v>
       </c>
       <c r="L4">
-        <v>0.1919779840144926</v>
+        <v>0.353995462863459</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.513687703421127</v>
+        <v>4.245147570029204</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.514307701251312</v>
+        <v>2.12365189884602</v>
       </c>
       <c r="C5">
-        <v>0.07862139723984285</v>
+        <v>0.0237258355697918</v>
       </c>
       <c r="D5">
-        <v>0.004723690698140715</v>
+        <v>0.01436274393960524</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.414287708004338</v>
+        <v>4.287868759566933</v>
       </c>
       <c r="G5">
-        <v>0.0008759092894280189</v>
+        <v>0.002653984805001135</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09486842018435482</v>
+        <v>0.2181510420446102</v>
       </c>
       <c r="K5">
-        <v>1.28874271351134</v>
+        <v>1.523853346751423</v>
       </c>
       <c r="L5">
-        <v>0.1871235310862076</v>
+        <v>0.3534042061199614</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.518160525803538</v>
+        <v>4.247642375203313</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.506335354957685</v>
+        <v>2.122236450689996</v>
       </c>
       <c r="C6">
-        <v>0.0780341057426881</v>
+        <v>0.02355932363396107</v>
       </c>
       <c r="D6">
-        <v>0.004689884105232522</v>
+        <v>0.01436092689200485</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.410104840923282</v>
+        <v>4.287540055312149</v>
       </c>
       <c r="G6">
-        <v>0.0008762198755972709</v>
+        <v>0.002654188908882891</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09481397806809611</v>
+        <v>0.218174727244282</v>
       </c>
       <c r="K6">
-        <v>1.281191469419099</v>
+        <v>1.522362477667258</v>
       </c>
       <c r="L6">
-        <v>0.1863214594611193</v>
+        <v>0.3533086407620303</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.518933519243376</v>
+        <v>4.248069459321073</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.56186809791086</v>
+        <v>2.132167315497298</v>
       </c>
       <c r="C7">
-        <v>0.08211776279307514</v>
+        <v>0.02471545062726932</v>
       </c>
       <c r="D7">
-        <v>0.004924475719809251</v>
+        <v>0.01437432120345861</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.43942157968344</v>
+        <v>4.289960108571236</v>
       </c>
       <c r="G7">
-        <v>0.0008740763466824583</v>
+        <v>0.002652785323446039</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09520033301393482</v>
+        <v>0.2180156618861631</v>
       </c>
       <c r="K7">
-        <v>1.333772857173898</v>
+        <v>1.532793432632076</v>
       </c>
       <c r="L7">
-        <v>0.1919122431937268</v>
+        <v>0.3539873138735885</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.513745981965769</v>
+        <v>4.245180356123569</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.81214950616183</v>
+        <v>2.178614775203215</v>
       </c>
       <c r="C8">
-        <v>0.1003457511328349</v>
+        <v>0.0298263475440308</v>
       </c>
       <c r="D8">
-        <v>0.005958419096877776</v>
+        <v>0.01445267237014036</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.576159899045877</v>
+        <v>4.304066238716416</v>
       </c>
       <c r="G8">
-        <v>0.0008649145690708272</v>
+        <v>0.002646915380943282</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09712189984384167</v>
+        <v>0.2174456386405339</v>
       </c>
       <c r="K8">
-        <v>1.570307361400467</v>
+        <v>1.580869538105389</v>
       </c>
       <c r="L8">
-        <v>0.21720327442236</v>
+        <v>0.3573614954943451</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.495404935325126</v>
+        <v>4.234296145813033</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.325737471564878</v>
+        <v>2.279130779985735</v>
       </c>
       <c r="C9">
-        <v>0.1371473181533958</v>
+        <v>0.0398864773145533</v>
       </c>
       <c r="D9">
-        <v>0.007985283658424436</v>
+        <v>0.01467452253948309</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.874642863746473</v>
+        <v>4.34405206172147</v>
       </c>
       <c r="G9">
-        <v>0.000847946636276367</v>
+        <v>0.002636560115697793</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1017440194211261</v>
+        <v>0.216800691013308</v>
       </c>
       <c r="K9">
-        <v>2.05413665964187</v>
+        <v>1.682512461426711</v>
       </c>
       <c r="L9">
-        <v>0.2694270891222317</v>
+        <v>0.3653389708807566</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.477360610850994</v>
+        <v>4.219663458800625</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.721192457019242</v>
+        <v>2.358744925782332</v>
       </c>
       <c r="C10">
-        <v>0.165159770127687</v>
+        <v>0.04730596797961084</v>
       </c>
       <c r="D10">
-        <v>0.009478920309636152</v>
+        <v>0.01487829429667542</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.116498041395914</v>
+        <v>4.3809597685771</v>
       </c>
       <c r="G10">
-        <v>0.0008360161397383371</v>
+        <v>0.002629649034796738</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1057396288239261</v>
+        <v>0.216614249406426</v>
       </c>
       <c r="K10">
-        <v>2.425810560859929</v>
+        <v>1.761703519417182</v>
       </c>
       <c r="L10">
-        <v>0.309820155112817</v>
+        <v>0.3720286807632363</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.476681233319511</v>
+        <v>4.213014822421258</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.906082088520634</v>
+        <v>2.396219344950282</v>
       </c>
       <c r="C11">
-        <v>0.1781978488799609</v>
+        <v>0.05068863214711428</v>
       </c>
       <c r="D11">
-        <v>0.01016079098019418</v>
+        <v>0.01497968633751867</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.232434612183766</v>
+        <v>4.399389556146616</v>
       </c>
       <c r="G11">
-        <v>0.0008306871590161733</v>
+        <v>0.002626654718478335</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1077072044018053</v>
+        <v>0.2165916703437105</v>
       </c>
       <c r="K11">
-        <v>2.59941439958078</v>
+        <v>1.798715648199277</v>
       </c>
       <c r="L11">
-        <v>0.3287402609019523</v>
+        <v>0.3752518540436114</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.479516537834925</v>
+        <v>4.210883406657572</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.97691074236792</v>
+        <v>2.410590873473609</v>
       </c>
       <c r="C12">
-        <v>0.1831852248409405</v>
+        <v>0.05197071959496213</v>
       </c>
       <c r="D12">
-        <v>0.0104194834931377</v>
+        <v>0.01501931713021065</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.277281584501225</v>
+        <v>4.406604528254121</v>
       </c>
       <c r="G12">
-        <v>0.0008286817094269594</v>
+        <v>0.002625542233867077</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.108475659709903</v>
+        <v>0.2165920536413068</v>
       </c>
       <c r="K12">
-        <v>2.665897599622156</v>
+        <v>1.812873481381274</v>
       </c>
       <c r="L12">
-        <v>0.3359928737635443</v>
+        <v>0.3764982394978205</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.481081201968379</v>
+        <v>4.210204909534923</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.961618631096371</v>
+        <v>2.407487668209626</v>
       </c>
       <c r="C13">
-        <v>0.1821087422773502</v>
+        <v>0.05169454707882437</v>
       </c>
       <c r="D13">
-        <v>0.01036374552147379</v>
+        <v>0.01501072719531749</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.267579390553379</v>
+        <v>4.405040155897296</v>
       </c>
       <c r="G13">
-        <v>0.000829113089320155</v>
+        <v>0.00262578087751454</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1083090885228088</v>
+        <v>0.216591574018473</v>
       </c>
       <c r="K13">
-        <v>2.651544627512351</v>
+        <v>1.809818014971995</v>
       </c>
       <c r="L13">
-        <v>0.334426817538926</v>
+        <v>0.3762286595309519</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.480721722775058</v>
+        <v>4.210345312214315</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.91189228175449</v>
+        <v>2.397398076439174</v>
       </c>
       <c r="C14">
-        <v>0.1786071112315</v>
+        <v>0.05079408689914544</v>
       </c>
       <c r="D14">
-        <v>0.01018206322285309</v>
+        <v>0.01498292210224861</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.236104702481242</v>
+        <v>4.399978405384047</v>
       </c>
       <c r="G14">
-        <v>0.0008305219283620069</v>
+        <v>0.002626562765655088</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1077699461163135</v>
+        <v>0.2165915229257251</v>
       </c>
       <c r="K14">
-        <v>2.604868555297543</v>
+        <v>1.799877572227672</v>
       </c>
       <c r="L14">
-        <v>0.3293351160160256</v>
+        <v>0.3753538772995313</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.479635185952787</v>
+        <v>4.210825007319286</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.881542629642809</v>
+        <v>2.391241451516748</v>
       </c>
       <c r="C15">
-        <v>0.1764690340104522</v>
+        <v>0.05024268028283529</v>
       </c>
       <c r="D15">
-        <v>0.01007084491796917</v>
+        <v>0.01496605119170269</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.216951472019844</v>
+        <v>4.396908677037231</v>
       </c>
       <c r="G15">
-        <v>0.0008313864629431369</v>
+        <v>0.002627044478042739</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1074428072172253</v>
+        <v>0.2165926545747112</v>
       </c>
       <c r="K15">
-        <v>2.57637779903672</v>
+        <v>1.793807278707277</v>
       </c>
       <c r="L15">
-        <v>0.3262280608474128</v>
+        <v>0.3748214117667317</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.479034817068751</v>
+        <v>4.211135591039948</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.709218038819472</v>
+        <v>2.356321184514059</v>
       </c>
       <c r="C16">
-        <v>0.164314278336704</v>
+        <v>0.04708505959857234</v>
       </c>
       <c r="D16">
-        <v>0.00943441805792844</v>
+        <v>0.01487184181176104</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.109048135798673</v>
+        <v>4.379788357146509</v>
       </c>
       <c r="G16">
-        <v>0.0008363662444082808</v>
+        <v>0.002629847720614701</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1056142115052978</v>
+        <v>0.2166169759630563</v>
       </c>
       <c r="K16">
-        <v>2.414563907234509</v>
+        <v>1.759304574429081</v>
       </c>
       <c r="L16">
-        <v>0.3085954487381883</v>
+        <v>0.3718216569994155</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.476562438839267</v>
+        <v>4.213172103501137</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.604847578090528</v>
+        <v>2.335220777408949</v>
       </c>
       <c r="C17">
-        <v>0.1569385274138</v>
+        <v>0.04514993043071058</v>
       </c>
       <c r="D17">
-        <v>0.009044697466908502</v>
+        <v>0.01481626406216563</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.044431675764386</v>
+        <v>4.36970580887629</v>
       </c>
       <c r="G17">
-        <v>0.0008394452486677833</v>
+        <v>0.002631605648930597</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1045320680587949</v>
+        <v>0.2166478247411803</v>
       </c>
       <c r="K17">
-        <v>2.316518539731192</v>
+        <v>1.73839133721151</v>
       </c>
       <c r="L17">
-        <v>0.297924552400687</v>
+        <v>0.3700274737305165</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.475877421391033</v>
+        <v>4.214650318147804</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.545280274563083</v>
+        <v>2.32320275003184</v>
       </c>
       <c r="C18">
-        <v>0.1527234555439065</v>
+        <v>0.04403759725087752</v>
       </c>
       <c r="D18">
-        <v>0.008820757630100928</v>
+        <v>0.01478511650448766</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.007816633589215</v>
+        <v>4.364060976370013</v>
       </c>
       <c r="G18">
-        <v>0.0008412255643736751</v>
+        <v>0.002632630847202182</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1039236431570245</v>
+        <v>0.2166714268372729</v>
       </c>
       <c r="K18">
-        <v>2.260545536045839</v>
+        <v>1.726455557968393</v>
       </c>
       <c r="L18">
-        <v>0.2918376132866456</v>
+        <v>0.3690124510280981</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.475776822496655</v>
+        <v>4.215584597027529</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.525188685421085</v>
+        <v>2.319153984206764</v>
       </c>
       <c r="C19">
-        <v>0.1513007661514081</v>
+        <v>0.04366109886332481</v>
       </c>
       <c r="D19">
-        <v>0.008744968957056898</v>
+        <v>0.01477471163752142</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.995511283058732</v>
+        <v>4.362176244297373</v>
       </c>
       <c r="G19">
-        <v>0.000841830001843851</v>
+        <v>0.002632980384519361</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1037199923170817</v>
+        <v>0.2166804248207157</v>
       </c>
       <c r="K19">
-        <v>2.24166353679496</v>
+        <v>1.722430271234202</v>
       </c>
       <c r="L19">
-        <v>0.2897851075114062</v>
+        <v>0.3686716932622858</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.4757920367569</v>
+        <v>4.215915357267534</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.615909318917716</v>
+        <v>2.337454701498928</v>
       </c>
       <c r="C20">
-        <v>0.1577208137210278</v>
+        <v>0.04535585509894702</v>
       </c>
       <c r="D20">
-        <v>0.009086160500512364</v>
+        <v>0.01482209571949866</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.051252571592926</v>
+        <v>4.370763134405053</v>
       </c>
       <c r="G20">
-        <v>0.0008391165264805228</v>
+        <v>0.002631417057576592</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1046458030446118</v>
+        <v>0.2166439345991407</v>
       </c>
       <c r="K20">
-        <v>2.326911520686167</v>
+        <v>1.740607965076833</v>
       </c>
       <c r="L20">
-        <v>0.2990551760933187</v>
+        <v>0.3702167142713364</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.475919708080667</v>
+        <v>4.214484259550446</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.926475177521979</v>
+        <v>2.400356728199881</v>
       </c>
       <c r="C21">
-        <v>0.1796341986963768</v>
+        <v>0.05105854224100881</v>
       </c>
       <c r="D21">
-        <v>0.01023541340419243</v>
+        <v>0.01499105570665193</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.245323157438435</v>
+        <v>4.401458757755108</v>
       </c>
       <c r="G21">
-        <v>0.0008301077919813123</v>
+        <v>0.002626332526120714</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1079276554799691</v>
+        <v>0.2165912956040259</v>
       </c>
       <c r="K21">
-        <v>2.618557496406538</v>
+        <v>1.802793462568218</v>
       </c>
       <c r="L21">
-        <v>0.3308282030750718</v>
+        <v>0.37561012109947</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.479940672239863</v>
+        <v>4.210680616809455</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.134250517915007</v>
+        <v>2.442520541171234</v>
       </c>
       <c r="C22">
-        <v>0.1942523278222126</v>
+        <v>0.05479228902717637</v>
       </c>
       <c r="D22">
-        <v>0.01098941259148489</v>
+        <v>0.01510867756303824</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.377714476430526</v>
+        <v>4.422895850068215</v>
       </c>
       <c r="G22">
-        <v>0.0008242921727801972</v>
+        <v>0.002623134162488488</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.110209775627041</v>
+        <v>0.2166089571810161</v>
       </c>
       <c r="K22">
-        <v>2.813546901817887</v>
+        <v>1.844263857610741</v>
       </c>
       <c r="L22">
-        <v>0.3521117096407238</v>
+        <v>0.3792856187514246</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.485451657548055</v>
+        <v>4.208944530401254</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.022882833077119</v>
+        <v>2.419920522041025</v>
       </c>
       <c r="C23">
-        <v>0.1864204532370479</v>
+        <v>0.0527988816314604</v>
       </c>
       <c r="D23">
-        <v>0.01058667247570355</v>
+        <v>0.01504524681419994</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.306512867950119</v>
+        <v>4.411328542353999</v>
       </c>
       <c r="G23">
-        <v>0.000827390054572936</v>
+        <v>0.002624829818119801</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1089785586575545</v>
+        <v>0.2165947720933232</v>
       </c>
       <c r="K23">
-        <v>2.709043397820494</v>
+        <v>1.82205447352564</v>
       </c>
       <c r="L23">
-        <v>0.340701471349135</v>
+        <v>0.377310170875802</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.482232584459069</v>
+        <v>4.209802437129511</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.61090695295826</v>
+        <v>2.33644439281511</v>
       </c>
       <c r="C24">
-        <v>0.1573670637071132</v>
+        <v>0.04526275594395202</v>
       </c>
       <c r="D24">
-        <v>0.009067414712404798</v>
+        <v>0.01481945671926255</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.048167188813821</v>
+        <v>4.370284644824324</v>
       </c>
       <c r="G24">
-        <v>0.0008392651100217541</v>
+        <v>0.00263150227437929</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1045943408769716</v>
+        <v>0.2166456750575705</v>
       </c>
       <c r="K24">
-        <v>2.322211631798893</v>
+        <v>1.739605555017789</v>
       </c>
       <c r="L24">
-        <v>0.2985438726330898</v>
+        <v>0.370131107296416</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.475899679817658</v>
+        <v>4.214559071640522</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.183945277067608</v>
+        <v>2.250927230313835</v>
       </c>
       <c r="C25">
-        <v>0.1270462512010937</v>
+        <v>0.03716036159285352</v>
       </c>
       <c r="D25">
-        <v>0.007436583704169664</v>
+        <v>0.01460728799186128</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.790250252406722</v>
+        <v>4.331913749322837</v>
       </c>
       <c r="G25">
-        <v>0.0008524371888936977</v>
+        <v>0.002639238554392964</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1003944515193282</v>
+        <v>0.2169246339595112</v>
       </c>
       <c r="K25">
-        <v>1.920715563891946</v>
+        <v>1.654224388930118</v>
       </c>
       <c r="L25">
-        <v>0.2549765080723176</v>
+        <v>0.3630352729392428</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.480162380976537</v>
+        <v>4.222902422809767</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.191837543572632</v>
+        <v>1.881361437912403</v>
       </c>
       <c r="C2">
-        <v>0.03121349681488539</v>
+        <v>0.1053449598841354</v>
       </c>
       <c r="D2">
-        <v>0.01447854751909361</v>
+        <v>0.006238367167789249</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.308721678539314</v>
+        <v>2.615124267532266</v>
       </c>
       <c r="G2">
-        <v>0.002645403414384401</v>
+        <v>0.0008625022416162405</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.217323224979566</v>
+        <v>0.09769764282794569</v>
       </c>
       <c r="K2">
-        <v>1.594393377898427</v>
+        <v>1.635612263716951</v>
       </c>
       <c r="L2">
-        <v>0.3583678508754957</v>
+        <v>0.2242193646726633</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.231800862614222</v>
+        <v>2.491592409742765</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.154203712022706</v>
+        <v>1.682251447442212</v>
       </c>
       <c r="C3">
-        <v>0.02719316049150677</v>
+        <v>0.09091784407000603</v>
       </c>
       <c r="D3">
-        <v>0.01440869971301595</v>
+        <v>0.005426281505439334</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.296154326153413</v>
+        <v>2.504316464727012</v>
       </c>
       <c r="G3">
-        <v>0.002649876345347199</v>
+        <v>0.0008695761509415079</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2177141506405746</v>
+        <v>0.09609061342320047</v>
       </c>
       <c r="K3">
-        <v>1.55572932451571</v>
+        <v>1.447626476396977</v>
       </c>
       <c r="L3">
-        <v>0.3555524453458148</v>
+        <v>0.2040596735506313</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.239546622931925</v>
+        <v>2.503967157910438</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.132284954798621</v>
+        <v>1.562520584284414</v>
       </c>
       <c r="C4">
-        <v>0.02472898349374475</v>
+        <v>0.08216564673338667</v>
       </c>
       <c r="D4">
-        <v>0.01437448850994016</v>
+        <v>0.004927219891778023</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.289990300900115</v>
+        <v>2.439768485975009</v>
       </c>
       <c r="G4">
-        <v>0.002652769077497049</v>
+        <v>0.0008740514304579223</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2180138728566128</v>
+        <v>0.09520496910919718</v>
       </c>
       <c r="K4">
-        <v>1.532916606725195</v>
+        <v>1.334390422311486</v>
       </c>
       <c r="L4">
-        <v>0.353995462863459</v>
+        <v>0.1919779840144145</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.245147570029204</v>
+        <v>2.513687703421112</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.12365189884602</v>
+        <v>1.514307701251454</v>
       </c>
       <c r="C5">
-        <v>0.0237258355697918</v>
+        <v>0.07862139723984285</v>
       </c>
       <c r="D5">
-        <v>0.01436274393960524</v>
+        <v>0.004723690698043015</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.287868759566933</v>
+        <v>2.414287708004352</v>
       </c>
       <c r="G5">
-        <v>0.002653984805001135</v>
+        <v>0.000875909289457417</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2181510420446102</v>
+        <v>0.0948684201843939</v>
       </c>
       <c r="K5">
-        <v>1.523853346751423</v>
+        <v>1.288742713511397</v>
       </c>
       <c r="L5">
-        <v>0.3534042061199614</v>
+        <v>0.1871235310863071</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.247642375203313</v>
+        <v>2.51816052580358</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.122236450689996</v>
+        <v>1.506335354957685</v>
       </c>
       <c r="C6">
-        <v>0.02355932363396107</v>
+        <v>0.07803410574288705</v>
       </c>
       <c r="D6">
-        <v>0.01436092689200485</v>
+        <v>0.004689884105232522</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.287540055312149</v>
+        <v>2.410104840923296</v>
       </c>
       <c r="G6">
-        <v>0.002654188908882891</v>
+        <v>0.0008762198754772564</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.218174727244282</v>
+        <v>0.09481397806802505</v>
       </c>
       <c r="K6">
-        <v>1.522362477667258</v>
+        <v>1.281191469419127</v>
       </c>
       <c r="L6">
-        <v>0.3533086407620303</v>
+        <v>0.1863214594611762</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.248069459321073</v>
+        <v>2.518933519243376</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.132167315497298</v>
+        <v>1.561868097911088</v>
       </c>
       <c r="C7">
-        <v>0.02471545062726932</v>
+        <v>0.08211776279303251</v>
       </c>
       <c r="D7">
-        <v>0.01437432120345861</v>
+        <v>0.004924475719672472</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.289960108571236</v>
+        <v>2.439421579683469</v>
       </c>
       <c r="G7">
-        <v>0.002652785323446039</v>
+        <v>0.0008740763466802622</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2180156618861631</v>
+        <v>0.09520033301391351</v>
       </c>
       <c r="K7">
-        <v>1.532793432632076</v>
+        <v>1.333772857173955</v>
       </c>
       <c r="L7">
-        <v>0.3539873138735885</v>
+        <v>0.1919122431937055</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4.245180356123569</v>
+        <v>2.513745981965869</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.178614775203215</v>
+        <v>1.812149506161774</v>
       </c>
       <c r="C8">
-        <v>0.0298263475440308</v>
+        <v>0.1003457511325934</v>
       </c>
       <c r="D8">
-        <v>0.01445267237014036</v>
+        <v>0.005958419096785406</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.304066238716416</v>
+        <v>2.576159899045877</v>
       </c>
       <c r="G8">
-        <v>0.002646915380943282</v>
+        <v>0.0008649145690725312</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2174456386405339</v>
+        <v>0.09712189984380615</v>
       </c>
       <c r="K8">
-        <v>1.580869538105389</v>
+        <v>1.570307361400467</v>
       </c>
       <c r="L8">
-        <v>0.3573614954943451</v>
+        <v>0.2172032744223173</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.234296145813033</v>
+        <v>2.495404935325141</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.279130779985735</v>
+        <v>2.325737471564707</v>
       </c>
       <c r="C9">
-        <v>0.0398864773145533</v>
+        <v>0.1371473181533673</v>
       </c>
       <c r="D9">
-        <v>0.01467452253948309</v>
+        <v>0.00798528365841733</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.34405206172147</v>
+        <v>2.874642863746431</v>
       </c>
       <c r="G9">
-        <v>0.002636560115697793</v>
+        <v>0.0008479466364476052</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.216800691013308</v>
+        <v>0.1017440194211012</v>
       </c>
       <c r="K9">
-        <v>1.682512461426711</v>
+        <v>2.054136659641927</v>
       </c>
       <c r="L9">
-        <v>0.3653389708807566</v>
+        <v>0.2694270891222175</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.219663458800625</v>
+        <v>2.477360610850965</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.358744925782332</v>
+        <v>2.721192457019242</v>
       </c>
       <c r="C10">
-        <v>0.04730596797961084</v>
+        <v>0.165159770127687</v>
       </c>
       <c r="D10">
-        <v>0.01487829429667542</v>
+        <v>0.009478920309526018</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.3809597685771</v>
+        <v>3.116498041395857</v>
       </c>
       <c r="G10">
-        <v>0.002629649034796738</v>
+        <v>0.0008360161399167971</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.216614249406426</v>
+        <v>0.1057396288238337</v>
       </c>
       <c r="K10">
-        <v>1.761703519417182</v>
+        <v>2.425810560860015</v>
       </c>
       <c r="L10">
-        <v>0.3720286807632363</v>
+        <v>0.3098201551128454</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.213014822421258</v>
+        <v>2.476681233319511</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.396219344950282</v>
+        <v>2.906082088520577</v>
       </c>
       <c r="C11">
-        <v>0.05068863214711428</v>
+        <v>0.178197848879492</v>
       </c>
       <c r="D11">
-        <v>0.01497968633751867</v>
+        <v>0.01016079097996325</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.399389556146616</v>
+        <v>3.232434612183766</v>
       </c>
       <c r="G11">
-        <v>0.002626654718478335</v>
+        <v>0.0008306871590152302</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2165916703437105</v>
+        <v>0.1077072044017697</v>
       </c>
       <c r="K11">
-        <v>1.798715648199277</v>
+        <v>2.599414399580809</v>
       </c>
       <c r="L11">
-        <v>0.3752518540436114</v>
+        <v>0.3287402609018955</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.210883406657572</v>
+        <v>2.479516537834982</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.410590873473609</v>
+        <v>2.976910742368034</v>
       </c>
       <c r="C12">
-        <v>0.05197071959496213</v>
+        <v>0.1831852248409405</v>
       </c>
       <c r="D12">
-        <v>0.01501931713021065</v>
+        <v>0.01041948349301336</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.406604528254121</v>
+        <v>3.277281584501196</v>
       </c>
       <c r="G12">
-        <v>0.002625542233867077</v>
+        <v>0.0008286817093668179</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2165920536413068</v>
+        <v>0.1084756597099101</v>
       </c>
       <c r="K12">
-        <v>1.812873481381274</v>
+        <v>2.665897599622127</v>
       </c>
       <c r="L12">
-        <v>0.3764982394978205</v>
+        <v>0.3359928737636579</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.210204909534923</v>
+        <v>2.481081201968323</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.407487668209626</v>
+        <v>2.961618631096428</v>
       </c>
       <c r="C13">
-        <v>0.05169454707882437</v>
+        <v>0.182108742277336</v>
       </c>
       <c r="D13">
-        <v>0.01501072719531749</v>
+        <v>0.0103637455213601</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.405040155897296</v>
+        <v>3.267579390553379</v>
       </c>
       <c r="G13">
-        <v>0.00262578087751454</v>
+        <v>0.0008291130893809395</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.216591574018473</v>
+        <v>0.1083090885227591</v>
       </c>
       <c r="K13">
-        <v>1.809818014971995</v>
+        <v>2.651544627512493</v>
       </c>
       <c r="L13">
-        <v>0.3762286595309519</v>
+        <v>0.3344268175387271</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.210345312214315</v>
+        <v>2.48072172277503</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.397398076439174</v>
+        <v>2.911892281754717</v>
       </c>
       <c r="C14">
-        <v>0.05079408689914544</v>
+        <v>0.1786071112312868</v>
       </c>
       <c r="D14">
-        <v>0.01498292210224861</v>
+        <v>0.01018206322284243</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.399978405384047</v>
+        <v>3.236104702481271</v>
       </c>
       <c r="G14">
-        <v>0.002626562765655088</v>
+        <v>0.0008305219283622692</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2165915229257251</v>
+        <v>0.1077699461162211</v>
       </c>
       <c r="K14">
-        <v>1.799877572227672</v>
+        <v>2.604868555297543</v>
       </c>
       <c r="L14">
-        <v>0.3753538772995313</v>
+        <v>0.329335116016054</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.210825007319286</v>
+        <v>2.479635185952773</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.391241451516748</v>
+        <v>2.881542629642468</v>
       </c>
       <c r="C15">
-        <v>0.05024268028283529</v>
+        <v>0.1764690340104238</v>
       </c>
       <c r="D15">
-        <v>0.01496605119170269</v>
+        <v>0.01007084491783061</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.396908677037231</v>
+        <v>3.216951472019815</v>
       </c>
       <c r="G15">
-        <v>0.002627044478042739</v>
+        <v>0.0008313864628203936</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2165926545747112</v>
+        <v>0.1074428072171187</v>
       </c>
       <c r="K15">
-        <v>1.793807278707277</v>
+        <v>2.576377799036777</v>
       </c>
       <c r="L15">
-        <v>0.3748214117667317</v>
+        <v>0.326228060847555</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.211135591039948</v>
+        <v>2.47903481706868</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.356321184514059</v>
+        <v>2.709218038819472</v>
       </c>
       <c r="C16">
-        <v>0.04708505959857234</v>
+        <v>0.1643142783367182</v>
       </c>
       <c r="D16">
-        <v>0.01487184181176104</v>
+        <v>0.009434418057939098</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.379788357146509</v>
+        <v>3.109048135798616</v>
       </c>
       <c r="G16">
-        <v>0.002629847720614701</v>
+        <v>0.0008363662444095394</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2166169759630563</v>
+        <v>0.1056142115052623</v>
       </c>
       <c r="K16">
-        <v>1.759304574429081</v>
+        <v>2.414563907234481</v>
       </c>
       <c r="L16">
-        <v>0.3718216569994155</v>
+        <v>0.3085954487382594</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.213172103501137</v>
+        <v>2.476562438839267</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.335220777408949</v>
+        <v>2.604847578090585</v>
       </c>
       <c r="C17">
-        <v>0.04514993043071058</v>
+        <v>0.1569385274142689</v>
       </c>
       <c r="D17">
-        <v>0.01481626406216563</v>
+        <v>0.00904469746678771</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.36970580887629</v>
+        <v>3.044431675764386</v>
       </c>
       <c r="G17">
-        <v>0.002631605648930597</v>
+        <v>0.0008394452486682674</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2166478247411803</v>
+        <v>0.1045320680588446</v>
       </c>
       <c r="K17">
-        <v>1.73839133721151</v>
+        <v>2.316518539731192</v>
       </c>
       <c r="L17">
-        <v>0.3700274737305165</v>
+        <v>0.2979245524007723</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.214650318147804</v>
+        <v>2.47587742139109</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.32320275003184</v>
+        <v>2.54528027456314</v>
       </c>
       <c r="C18">
-        <v>0.04403759725087752</v>
+        <v>0.1527234555436792</v>
       </c>
       <c r="D18">
-        <v>0.01478511650448766</v>
+        <v>0.008820757630346066</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.364060976370013</v>
+        <v>3.007816633589215</v>
       </c>
       <c r="G18">
-        <v>0.002632630847202182</v>
+        <v>0.0008412255644899611</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2166714268372729</v>
+        <v>0.1039236431570387</v>
       </c>
       <c r="K18">
-        <v>1.726455557968393</v>
+        <v>2.260545536045811</v>
       </c>
       <c r="L18">
-        <v>0.3690124510280981</v>
+        <v>0.2918376132866456</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4.215584597027529</v>
+        <v>2.475776822496655</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.319153984206764</v>
+        <v>2.525188685421369</v>
       </c>
       <c r="C19">
-        <v>0.04366109886332481</v>
+        <v>0.1513007661513797</v>
       </c>
       <c r="D19">
-        <v>0.01477471163752142</v>
+        <v>0.008744968957032029</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.362176244297373</v>
+        <v>2.995511283058647</v>
       </c>
       <c r="G19">
-        <v>0.002632980384519361</v>
+        <v>0.00084183000178246</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2166804248207157</v>
+        <v>0.1037199923171457</v>
       </c>
       <c r="K19">
-        <v>1.722430271234202</v>
+        <v>2.241663536795045</v>
       </c>
       <c r="L19">
-        <v>0.3686716932622858</v>
+        <v>0.2897851075114204</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4.215915357267534</v>
+        <v>2.475792036756786</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.337454701498928</v>
+        <v>2.615909318917716</v>
       </c>
       <c r="C20">
-        <v>0.04535585509894702</v>
+        <v>0.1577208137210135</v>
       </c>
       <c r="D20">
-        <v>0.01482209571949866</v>
+        <v>0.009086160500633156</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.370763134405053</v>
+        <v>3.051252571592912</v>
       </c>
       <c r="G20">
-        <v>0.002631417057576592</v>
+        <v>0.0008391165265392034</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2166439345991407</v>
+        <v>0.1046458030445052</v>
       </c>
       <c r="K20">
-        <v>1.740607965076833</v>
+        <v>2.326911520686167</v>
       </c>
       <c r="L20">
-        <v>0.3702167142713364</v>
+        <v>0.2990551760933471</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.214484259550446</v>
+        <v>2.475919708080653</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.400356728199881</v>
+        <v>2.926475177521752</v>
       </c>
       <c r="C21">
-        <v>0.05105854224100881</v>
+        <v>0.1796341986964194</v>
       </c>
       <c r="D21">
-        <v>0.01499105570665193</v>
+        <v>0.01023541340434164</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.401458757755108</v>
+        <v>3.245323157438349</v>
       </c>
       <c r="G21">
-        <v>0.002626332526120714</v>
+        <v>0.0008301077920434878</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2165912956040259</v>
+        <v>0.1079276554799051</v>
       </c>
       <c r="K21">
-        <v>1.802793462568218</v>
+        <v>2.618557496406538</v>
       </c>
       <c r="L21">
-        <v>0.37561012109947</v>
+        <v>0.3308282030751428</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.210680616809455</v>
+        <v>2.47994067223982</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.442520541171234</v>
+        <v>3.13425051791495</v>
       </c>
       <c r="C22">
-        <v>0.05479228902717637</v>
+        <v>0.1942523278222268</v>
       </c>
       <c r="D22">
-        <v>0.01510867756303824</v>
+        <v>0.01098941259139252</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.422895850068215</v>
+        <v>3.377714476430498</v>
       </c>
       <c r="G22">
-        <v>0.002623134162488488</v>
+        <v>0.0008242921727215267</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2166089571810161</v>
+        <v>0.1102097756272187</v>
       </c>
       <c r="K22">
-        <v>1.844263857610741</v>
+        <v>2.813546901817887</v>
       </c>
       <c r="L22">
-        <v>0.3792856187514246</v>
+        <v>0.3521117096408233</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.208944530401254</v>
+        <v>2.485451657548111</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.419920522041025</v>
+        <v>3.022882833077119</v>
       </c>
       <c r="C23">
-        <v>0.0527988816314604</v>
+        <v>0.186420453236579</v>
       </c>
       <c r="D23">
-        <v>0.01504524681419994</v>
+        <v>0.01058667247557921</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.411328542353999</v>
+        <v>3.306512867950175</v>
       </c>
       <c r="G23">
-        <v>0.002624829818119801</v>
+        <v>0.0008273900545697889</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2165947720933232</v>
+        <v>0.1089785586574834</v>
       </c>
       <c r="K23">
-        <v>1.82205447352564</v>
+        <v>2.709043397820324</v>
       </c>
       <c r="L23">
-        <v>0.377310170875802</v>
+        <v>0.3407014713491776</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.209802437129511</v>
+        <v>2.482232584459098</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.33644439281511</v>
+        <v>2.610906952958487</v>
       </c>
       <c r="C24">
-        <v>0.04526275594395202</v>
+        <v>0.1573670637075821</v>
       </c>
       <c r="D24">
-        <v>0.01481945671926255</v>
+        <v>0.009067414712397692</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.370284644824324</v>
+        <v>3.048167188813807</v>
       </c>
       <c r="G24">
-        <v>0.00263150227437929</v>
+        <v>0.0008392651099617351</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2166456750575705</v>
+        <v>0.1045943408770782</v>
       </c>
       <c r="K24">
-        <v>1.739605555017789</v>
+        <v>2.322211631798922</v>
       </c>
       <c r="L24">
-        <v>0.370131107296416</v>
+        <v>0.2985438726329619</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.214559071640522</v>
+        <v>2.47589967981763</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.250927230313835</v>
+        <v>2.183945277067664</v>
       </c>
       <c r="C25">
-        <v>0.03716036159285352</v>
+        <v>0.1270462512006816</v>
       </c>
       <c r="D25">
-        <v>0.01460728799186128</v>
+        <v>0.007436583704187427</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.331913749322837</v>
+        <v>2.790250252406736</v>
       </c>
       <c r="G25">
-        <v>0.002639238554392964</v>
+        <v>0.0008524371888974667</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2169246339595112</v>
+        <v>0.100394451519378</v>
       </c>
       <c r="K25">
-        <v>1.654224388930118</v>
+        <v>1.920715563891861</v>
       </c>
       <c r="L25">
-        <v>0.3630352729392428</v>
+        <v>0.2549765080722466</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.222902422809767</v>
+        <v>2.480162380976594</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.881361437912403</v>
+        <v>2.430027894565683</v>
       </c>
       <c r="C2">
-        <v>0.1053449598841354</v>
+        <v>0.6598772250606544</v>
       </c>
       <c r="D2">
-        <v>0.006238367167789249</v>
+        <v>0.03052094892991164</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.615124267532266</v>
+        <v>0.8965363443535495</v>
       </c>
       <c r="G2">
-        <v>0.0008625022416162405</v>
+        <v>0.8252435882209994</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001179122449987524</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004808580180069022</v>
       </c>
       <c r="J2">
-        <v>0.09769764282794569</v>
+        <v>0.5342309066262345</v>
       </c>
       <c r="K2">
-        <v>1.635612263716951</v>
+        <v>0.507635211015014</v>
       </c>
       <c r="L2">
-        <v>0.2242193646726633</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.491592409742765</v>
+        <v>0.2129268476628212</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4238977036106135</v>
+      </c>
+      <c r="P2">
+        <v>0.8114555120686777</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.682251447442212</v>
+        <v>2.114914412808218</v>
       </c>
       <c r="C3">
-        <v>0.09091784407000603</v>
+        <v>0.5852585654620839</v>
       </c>
       <c r="D3">
-        <v>0.005426281505439334</v>
+        <v>0.0288123112569636</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.504316464727012</v>
+        <v>0.8173422145746798</v>
       </c>
       <c r="G3">
-        <v>0.0008695761509415079</v>
+        <v>0.7511346653693778</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00230664826444571</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005118407057285168</v>
       </c>
       <c r="J3">
-        <v>0.09609061342320047</v>
+        <v>0.5042487289183839</v>
       </c>
       <c r="K3">
-        <v>1.447626476396977</v>
+        <v>0.4876244197349138</v>
       </c>
       <c r="L3">
-        <v>0.2040596735506313</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.503967157910438</v>
+        <v>0.1923861572111605</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3708304053009499</v>
+      </c>
+      <c r="P3">
+        <v>0.8404586878102513</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.562520584284414</v>
+        <v>1.921028389935145</v>
       </c>
       <c r="C4">
-        <v>0.08216564673338667</v>
+        <v>0.5397122392513722</v>
       </c>
       <c r="D4">
-        <v>0.004927219891778023</v>
+        <v>0.02775757302416437</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.439768485975009</v>
+        <v>0.7694356319319411</v>
       </c>
       <c r="G4">
-        <v>0.0008740514304579223</v>
+        <v>0.7062563184193493</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003217477876783059</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0008195452781820656</v>
       </c>
       <c r="J4">
-        <v>0.09520496910919718</v>
+        <v>0.4862486003796818</v>
       </c>
       <c r="K4">
-        <v>1.334390422311486</v>
+        <v>0.4756016455767451</v>
       </c>
       <c r="L4">
-        <v>0.1919779840144145</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.513687703421112</v>
+        <v>0.1797743110067742</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3382027626836077</v>
+      </c>
+      <c r="P4">
+        <v>0.8588491988330578</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.514307701251454</v>
+        <v>1.840602033274507</v>
       </c>
       <c r="C5">
-        <v>0.07862139723984285</v>
+        <v>0.5216906492104272</v>
       </c>
       <c r="D5">
-        <v>0.004723690698043015</v>
+        <v>0.0273563586178156</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.414287708004352</v>
+        <v>0.7492879477008856</v>
       </c>
       <c r="G5">
-        <v>0.000875909289457417</v>
+        <v>0.6872228319421225</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003643907521806433</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001083285042302151</v>
       </c>
       <c r="J5">
-        <v>0.0948684201843939</v>
+        <v>0.4785594087047826</v>
       </c>
       <c r="K5">
-        <v>1.288742713511397</v>
+        <v>0.4701622804058658</v>
       </c>
       <c r="L5">
-        <v>0.1871235310863071</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.51816052580358</v>
+        <v>0.1746517012267645</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3247387518803109</v>
+      </c>
+      <c r="P5">
+        <v>0.8664918836558488</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.506335354957685</v>
+        <v>1.825648724862475</v>
       </c>
       <c r="C6">
-        <v>0.07803410574288705</v>
+        <v>0.5192954651609227</v>
       </c>
       <c r="D6">
-        <v>0.004689884105232522</v>
+        <v>0.027326685605086</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.410104840923296</v>
+        <v>0.7449857522418384</v>
       </c>
       <c r="G6">
-        <v>0.0008762198754772564</v>
+        <v>0.682986229841049</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003721467132929424</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001223776578782143</v>
       </c>
       <c r="J6">
-        <v>0.09481397806802505</v>
+        <v>0.4767382271802205</v>
       </c>
       <c r="K6">
-        <v>1.281191469419127</v>
+        <v>0.4685279192262257</v>
       </c>
       <c r="L6">
-        <v>0.1863214594611762</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.518933519243376</v>
+        <v>0.1738245363012609</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3223132966834612</v>
+      </c>
+      <c r="P6">
+        <v>0.8677796566031137</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.561868097911088</v>
+        <v>1.915581363260941</v>
       </c>
       <c r="C7">
-        <v>0.08211776279303251</v>
+        <v>0.5410976159709264</v>
       </c>
       <c r="D7">
-        <v>0.004924475719672472</v>
+        <v>0.02785387715290355</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.439421579683469</v>
+        <v>0.7665200421090219</v>
       </c>
       <c r="G7">
-        <v>0.0008740763466802622</v>
+        <v>0.7030325465021718</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003232119163867675</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001059195124612167</v>
       </c>
       <c r="J7">
-        <v>0.09520033301391351</v>
+        <v>0.4846411112511788</v>
       </c>
       <c r="K7">
-        <v>1.333772857173955</v>
+        <v>0.4735198667947103</v>
       </c>
       <c r="L7">
-        <v>0.1919122431937055</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.513745981965869</v>
+        <v>0.1797704985625188</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3375035818571277</v>
+      </c>
+      <c r="P7">
+        <v>0.8589953139219269</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.812149506161774</v>
+        <v>2.315607615500255</v>
       </c>
       <c r="C8">
-        <v>0.1003457511325934</v>
+        <v>0.6362636780460491</v>
       </c>
       <c r="D8">
-        <v>0.005958419096785406</v>
+        <v>0.03007028763398623</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.576159899045877</v>
+        <v>0.8655563308914225</v>
       </c>
       <c r="G8">
-        <v>0.0008649145690725312</v>
+        <v>0.7956063019616977</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001528785476233696</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007063476258286627</v>
       </c>
       <c r="J8">
-        <v>0.09712189984380615</v>
+        <v>0.5218100083598216</v>
       </c>
       <c r="K8">
-        <v>1.570307361400467</v>
+        <v>0.4980174445667629</v>
       </c>
       <c r="L8">
-        <v>0.2172032744223173</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.495404935325141</v>
+        <v>0.20593200224112</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4049147934503168</v>
+      </c>
+      <c r="P8">
+        <v>0.8214627181624152</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.325737471564707</v>
+        <v>3.105509897045181</v>
       </c>
       <c r="C9">
-        <v>0.1371473181533673</v>
+        <v>0.8227363802502623</v>
       </c>
       <c r="D9">
-        <v>0.00798528365841733</v>
+        <v>0.03419130283884186</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.874642863746431</v>
+        <v>1.071017150730242</v>
       </c>
       <c r="G9">
-        <v>0.0008479466364476052</v>
+        <v>0.9882080152898141</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.090543888590759E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002151700657816669</v>
       </c>
       <c r="J9">
-        <v>0.1017440194211012</v>
+        <v>0.600987583622242</v>
       </c>
       <c r="K9">
-        <v>2.054136659641927</v>
+        <v>0.552000949119666</v>
       </c>
       <c r="L9">
-        <v>0.2694270891222175</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.477360610850965</v>
+        <v>0.2572346932357235</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5378291654298195</v>
+      </c>
+      <c r="P9">
+        <v>0.7524813893468316</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.721192457019242</v>
+        <v>3.667322915520288</v>
       </c>
       <c r="C10">
-        <v>0.165159770127687</v>
+        <v>0.9712537001917667</v>
       </c>
       <c r="D10">
-        <v>0.009478920309526018</v>
+        <v>0.03777937389498476</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.116498041395857</v>
+        <v>1.213241192262245</v>
       </c>
       <c r="G10">
-        <v>0.0008360161399167971</v>
+        <v>1.118793175499377</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0004109063614907704</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.005051733068211384</v>
       </c>
       <c r="J10">
-        <v>0.1057396288238337</v>
+        <v>0.6540697895149492</v>
       </c>
       <c r="K10">
-        <v>2.425810560860015</v>
+        <v>0.5831336215708731</v>
       </c>
       <c r="L10">
-        <v>0.3098201551128454</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.476681233319511</v>
+        <v>0.2798919692238258</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6230636896154422</v>
+      </c>
+      <c r="P10">
+        <v>0.706542302661699</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.906082088520577</v>
+        <v>3.775944523002806</v>
       </c>
       <c r="C11">
-        <v>0.178197848879492</v>
+        <v>1.115616357982702</v>
       </c>
       <c r="D11">
-        <v>0.01016079097996325</v>
+        <v>0.04469839504336903</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.232434612183766</v>
+        <v>1.166849378897041</v>
       </c>
       <c r="G11">
-        <v>0.0008306871590152302</v>
+        <v>1.054057706481913</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01895570088682064</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00652774213908458</v>
       </c>
       <c r="J11">
-        <v>0.1077072044017697</v>
+        <v>0.6159458586045474</v>
       </c>
       <c r="K11">
-        <v>2.599414399580809</v>
+        <v>0.5161806694589259</v>
       </c>
       <c r="L11">
-        <v>0.3287402609018955</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.479516537834982</v>
+        <v>0.1782842399201243</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5576874754405807</v>
+      </c>
+      <c r="P11">
+        <v>0.7086290294505666</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.976910742368034</v>
+        <v>3.753984533383459</v>
       </c>
       <c r="C12">
-        <v>0.1831852248409405</v>
+        <v>1.2082204854552</v>
       </c>
       <c r="D12">
-        <v>0.01041948349301336</v>
+        <v>0.05032263174409479</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.277281584501196</v>
+        <v>1.101895650104069</v>
       </c>
       <c r="G12">
-        <v>0.0008286817093668179</v>
+        <v>0.9776408166264332</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05755602398377135</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006711513855546691</v>
       </c>
       <c r="J12">
-        <v>0.1084756597099101</v>
+        <v>0.5752588888550036</v>
       </c>
       <c r="K12">
-        <v>2.665897599622127</v>
+        <v>0.4590871134992582</v>
       </c>
       <c r="L12">
-        <v>0.3359928737636579</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.481081201968323</v>
+        <v>0.1160208196124302</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4889245308783927</v>
+      </c>
+      <c r="P12">
+        <v>0.7309684980932971</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.961618631096428</v>
+        <v>3.623352116201488</v>
       </c>
       <c r="C13">
-        <v>0.182108742277336</v>
+        <v>1.267766515870221</v>
       </c>
       <c r="D13">
-        <v>0.0103637455213601</v>
+        <v>0.05536486000831076</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.267579390553379</v>
+        <v>1.014568864407977</v>
       </c>
       <c r="G13">
-        <v>0.0008291130893809395</v>
+        <v>0.8830641333937024</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131954242266744</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006180786246446246</v>
       </c>
       <c r="J13">
-        <v>0.1083090885227591</v>
+        <v>0.5278013079654897</v>
       </c>
       <c r="K13">
-        <v>2.651544627512493</v>
+        <v>0.4031304048790076</v>
       </c>
       <c r="L13">
-        <v>0.3344268175387271</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.48072172277503</v>
+        <v>0.08038223681930567</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.41326572606377</v>
+      </c>
+      <c r="P13">
+        <v>0.7690367990517402</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.911892281754717</v>
+        <v>3.482024506917867</v>
       </c>
       <c r="C14">
-        <v>0.1786071112312868</v>
+        <v>1.295189343654044</v>
       </c>
       <c r="D14">
-        <v>0.01018206322284243</v>
+        <v>0.05872149039866059</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.236104702481271</v>
+        <v>0.9432222090282067</v>
       </c>
       <c r="G14">
-        <v>0.0008305219283622692</v>
+        <v>0.8086689042965247</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624707716404572</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.005595214282808847</v>
       </c>
       <c r="J14">
-        <v>0.1077699461162211</v>
+        <v>0.4914807866028639</v>
       </c>
       <c r="K14">
-        <v>2.604868555297543</v>
+        <v>0.3647190431623741</v>
       </c>
       <c r="L14">
-        <v>0.329335116016054</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.479635185952773</v>
+        <v>0.07129409740891912</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3580961860249232</v>
+      </c>
+      <c r="P14">
+        <v>0.8039414188443601</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.881542629642468</v>
+        <v>3.423204918713168</v>
       </c>
       <c r="C15">
-        <v>0.1764690340104238</v>
+        <v>1.294856450119028</v>
       </c>
       <c r="D15">
-        <v>0.01007084491783061</v>
+        <v>0.05937827697727727</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.216951472019815</v>
+        <v>0.9202681993222086</v>
       </c>
       <c r="G15">
-        <v>0.0008313864628203936</v>
+        <v>0.7856774520146672</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749548716237399</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00541408035147839</v>
       </c>
       <c r="J15">
-        <v>0.1074428072171187</v>
+        <v>0.4807047304212091</v>
       </c>
       <c r="K15">
-        <v>2.576377799036777</v>
+        <v>0.3547386288926084</v>
       </c>
       <c r="L15">
-        <v>0.326228060847555</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.47903481706868</v>
+        <v>0.07103686556131095</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3427176926250937</v>
+      </c>
+      <c r="P15">
+        <v>0.8146475126119341</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.709218038819472</v>
+        <v>3.208156998614527</v>
       </c>
       <c r="C16">
-        <v>0.1643142783367182</v>
+        <v>1.216881492805101</v>
       </c>
       <c r="D16">
-        <v>0.009434418057939098</v>
+        <v>0.05667966993117801</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.109048135798616</v>
+        <v>0.8759122083499875</v>
       </c>
       <c r="G16">
-        <v>0.0008363662444095394</v>
+        <v>0.7479703544125584</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621331998657638</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004264857797982913</v>
       </c>
       <c r="J16">
-        <v>0.1056142115052623</v>
+        <v>0.4669241411997689</v>
       </c>
       <c r="K16">
-        <v>2.414563907234481</v>
+        <v>0.3522321306222089</v>
       </c>
       <c r="L16">
-        <v>0.3085954487382594</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.476562438839267</v>
+        <v>0.06954467366452111</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3234942706582657</v>
+      </c>
+      <c r="P16">
+        <v>0.8230684331459841</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.604847578090585</v>
+        <v>3.118016975465707</v>
       </c>
       <c r="C17">
-        <v>0.1569385274142689</v>
+        <v>1.142818057762298</v>
       </c>
       <c r="D17">
-        <v>0.00904469746678771</v>
+        <v>0.05281096554563192</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.044431675764386</v>
+        <v>0.8796443713976174</v>
       </c>
       <c r="G17">
-        <v>0.0008394452486682674</v>
+        <v>0.7582424921073425</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243397681347602</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00375347892461253</v>
       </c>
       <c r="J17">
-        <v>0.1045320680588446</v>
+        <v>0.4755451582014558</v>
       </c>
       <c r="K17">
-        <v>2.316518539731192</v>
+        <v>0.3702901645869794</v>
       </c>
       <c r="L17">
-        <v>0.2979245524007723</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.47587742139109</v>
+        <v>0.07057093500644562</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3372804897004258</v>
+      </c>
+      <c r="P17">
+        <v>0.8108390471195079</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.54528027456314</v>
+        <v>3.127950656350265</v>
       </c>
       <c r="C18">
-        <v>0.1527234555436792</v>
+        <v>1.063737191886617</v>
       </c>
       <c r="D18">
-        <v>0.008820757630346066</v>
+        <v>0.0476702107082545</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.007816633589215</v>
+        <v>0.9274002321871677</v>
       </c>
       <c r="G18">
-        <v>0.0008412255644899611</v>
+        <v>0.8139390316986947</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07150195889590805</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003377448210807543</v>
       </c>
       <c r="J18">
-        <v>0.1039236431570387</v>
+        <v>0.5058236697034744</v>
       </c>
       <c r="K18">
-        <v>2.260545536045811</v>
+        <v>0.4110094275352196</v>
       </c>
       <c r="L18">
-        <v>0.2918376132866456</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.475776822496655</v>
+        <v>0.08775969132471673</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.383511905975368</v>
+      </c>
+      <c r="P18">
+        <v>0.7836584751942013</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.525188685421369</v>
+        <v>3.209309641088794</v>
       </c>
       <c r="C19">
-        <v>0.1513007661513797</v>
+        <v>0.9926082542114898</v>
       </c>
       <c r="D19">
-        <v>0.008744968957032029</v>
+        <v>0.0426112149755653</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.995511283058647</v>
+        <v>1.003775729835098</v>
       </c>
       <c r="G19">
-        <v>0.00084183000178246</v>
+        <v>0.8992435610172436</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02622930072581653</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003629264752990302</v>
       </c>
       <c r="J19">
-        <v>0.1037199923171457</v>
+        <v>0.5496962918376056</v>
       </c>
       <c r="K19">
-        <v>2.241663536795045</v>
+        <v>0.4667981320198251</v>
       </c>
       <c r="L19">
-        <v>0.2897851075114204</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.475792036756786</v>
+        <v>0.1375019673152948</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.455333626986544</v>
+      </c>
+      <c r="P19">
+        <v>0.7556608834453087</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.615909318917716</v>
+        <v>3.505038727560077</v>
       </c>
       <c r="C20">
-        <v>0.1577208137210135</v>
+        <v>0.9376350321644793</v>
       </c>
       <c r="D20">
-        <v>0.009086160500633156</v>
+        <v>0.03720302434228984</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.051252571592912</v>
+        <v>1.166644386618472</v>
       </c>
       <c r="G20">
-        <v>0.0008391165265392034</v>
+        <v>1.07421487247872</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002016963302660102</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004844640108679243</v>
       </c>
       <c r="J20">
-        <v>0.1046458030445052</v>
+        <v>0.6349334686951238</v>
       </c>
       <c r="K20">
-        <v>2.326911520686167</v>
+        <v>0.5682054977871474</v>
       </c>
       <c r="L20">
-        <v>0.2990551760933471</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.475919708080653</v>
+        <v>0.2734842237895947</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5985179208130305</v>
+      </c>
+      <c r="P20">
+        <v>0.7191553197187233</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.926475177521752</v>
+        <v>3.963844285998562</v>
       </c>
       <c r="C21">
-        <v>0.1796341986964194</v>
+        <v>1.039329232445795</v>
       </c>
       <c r="D21">
-        <v>0.01023541340434164</v>
+        <v>0.03907725957883912</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.245323157438349</v>
+        <v>1.298884716243265</v>
       </c>
       <c r="G21">
-        <v>0.0008301077920434878</v>
+        <v>1.199923447411777</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0007468888939183849</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.007665567908318849</v>
       </c>
       <c r="J21">
-        <v>0.1079276554799051</v>
+        <v>0.688571978606177</v>
       </c>
       <c r="K21">
-        <v>2.618557496406538</v>
+        <v>0.6085315760287529</v>
       </c>
       <c r="L21">
-        <v>0.3308282030751428</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.47994067223982</v>
+        <v>0.3146727412629957</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6832132398924813</v>
+      </c>
+      <c r="P21">
+        <v>0.6828155429557015</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.13425051791495</v>
+        <v>4.26189341756708</v>
       </c>
       <c r="C22">
-        <v>0.1942523278222268</v>
+        <v>1.108483681726369</v>
       </c>
       <c r="D22">
-        <v>0.01098941259139252</v>
+        <v>0.04042540276862994</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.377714476430498</v>
+        <v>1.383773366267874</v>
       </c>
       <c r="G22">
-        <v>0.0008242921727215267</v>
+        <v>1.280096855357215</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001473597801678883</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.009632220097229194</v>
       </c>
       <c r="J22">
-        <v>0.1102097756272187</v>
+        <v>0.7226831573281629</v>
       </c>
       <c r="K22">
-        <v>2.813546901817887</v>
+        <v>0.633218381477036</v>
       </c>
       <c r="L22">
-        <v>0.3521117096408233</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.485451657548111</v>
+        <v>0.3337889562824188</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.733149157211443</v>
+      </c>
+      <c r="P22">
+        <v>0.6601258590468824</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.022882833077119</v>
+        <v>4.108169841138931</v>
       </c>
       <c r="C23">
-        <v>0.186420453236579</v>
+        <v>1.069487185549775</v>
       </c>
       <c r="D23">
-        <v>0.01058667247557921</v>
+        <v>0.03957518425158568</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.306512867950175</v>
+        <v>1.341510441406271</v>
       </c>
       <c r="G23">
-        <v>0.0008273900545697889</v>
+        <v>1.240746847936123</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001061528618126806</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.008284865723887869</v>
       </c>
       <c r="J23">
-        <v>0.1089785586574834</v>
+        <v>0.7061993733643135</v>
       </c>
       <c r="K23">
-        <v>2.709043397820324</v>
+        <v>0.6223692130528207</v>
       </c>
       <c r="L23">
-        <v>0.3407014713491776</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.482232584459098</v>
+        <v>0.3234899311283641</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7071275007196007</v>
+      </c>
+      <c r="P23">
+        <v>0.6718640761515644</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.610906952958487</v>
+        <v>3.518316949454118</v>
       </c>
       <c r="C24">
-        <v>0.1573670637075821</v>
+        <v>0.9265987599210064</v>
       </c>
       <c r="D24">
-        <v>0.009067414712397692</v>
+        <v>0.03655855376662132</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.048167188813807</v>
+        <v>1.179248241295184</v>
       </c>
       <c r="G24">
-        <v>0.0008392651099617351</v>
+        <v>1.088712975699138</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001012941777085441</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.004420170008243574</v>
       </c>
       <c r="J24">
-        <v>0.1045943408770782</v>
+        <v>0.6423672250456178</v>
       </c>
       <c r="K24">
-        <v>2.322211631798922</v>
+        <v>0.5785434109119265</v>
       </c>
       <c r="L24">
-        <v>0.2985438726329619</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.47589967981763</v>
+        <v>0.2848340682928097</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6077537998952494</v>
+      </c>
+      <c r="P24">
+        <v>0.7182151601714288</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.183945277067664</v>
+        <v>2.883870371380283</v>
       </c>
       <c r="C25">
-        <v>0.1270462512006816</v>
+        <v>0.7749125928388594</v>
       </c>
       <c r="D25">
-        <v>0.007436583704187427</v>
+        <v>0.03327294931190039</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.790250252406736</v>
+        <v>1.009795326507543</v>
       </c>
       <c r="G25">
-        <v>0.0008524371888974667</v>
+        <v>0.9299604692940591</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002292449028644672</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001851545958762024</v>
       </c>
       <c r="J25">
-        <v>0.100394451519378</v>
+        <v>0.576402565308598</v>
       </c>
       <c r="K25">
-        <v>1.920715563891861</v>
+        <v>0.5334757694261469</v>
       </c>
       <c r="L25">
-        <v>0.2549765080722466</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.480162380976594</v>
+        <v>0.2434514418120344</v>
       </c>
       <c r="O25">
+        <v>0.500915417020515</v>
+      </c>
+      <c r="P25">
+        <v>0.7709046845954735</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.430027894565683</v>
+        <v>2.298931123923921</v>
       </c>
       <c r="C2">
-        <v>0.6598772250606544</v>
+        <v>0.6935510858930058</v>
       </c>
       <c r="D2">
-        <v>0.03052094892991164</v>
+        <v>0.03360680014300499</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8965363443535495</v>
+        <v>0.8142965366341599</v>
       </c>
       <c r="G2">
-        <v>0.8252435882209994</v>
+        <v>0.7113750318583811</v>
       </c>
       <c r="H2">
-        <v>0.001179122449987524</v>
+        <v>0.001040451453783953</v>
       </c>
       <c r="I2">
-        <v>0.0004808580180069022</v>
+        <v>0.000626761633234274</v>
       </c>
       <c r="J2">
-        <v>0.5342309066262345</v>
+        <v>0.5319982535982746</v>
       </c>
       <c r="K2">
-        <v>0.507635211015014</v>
+        <v>0.4397670344164908</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2172119002871931</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1223350383593385</v>
       </c>
       <c r="N2">
-        <v>0.2129268476628212</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4238977036106135</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8114555120686777</v>
+        <v>0.2189565153467044</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4080306077686942</v>
+      </c>
+      <c r="R2">
+        <v>0.8064789549865523</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.114914412808218</v>
+        <v>2.007776920113315</v>
       </c>
       <c r="C3">
-        <v>0.5852585654620839</v>
+        <v>0.6102593838676285</v>
       </c>
       <c r="D3">
-        <v>0.0288123112569636</v>
+        <v>0.0310223780381591</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8173422145746798</v>
+        <v>0.7472868612540111</v>
       </c>
       <c r="G3">
-        <v>0.7511346653693778</v>
+        <v>0.6513626262700711</v>
       </c>
       <c r="H3">
-        <v>0.00230664826444571</v>
+        <v>0.001998355151811348</v>
       </c>
       <c r="I3">
-        <v>0.0005118407057285168</v>
+        <v>0.000523829835287426</v>
       </c>
       <c r="J3">
-        <v>0.5042487289183839</v>
+        <v>0.5053040609220716</v>
       </c>
       <c r="K3">
-        <v>0.4876244197349138</v>
+        <v>0.4275156479596944</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2185975588485043</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1127029234458981</v>
       </c>
       <c r="N3">
-        <v>0.1923861572111605</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3708304053009499</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8404586878102513</v>
+        <v>0.1987338400928635</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3577623403623491</v>
+      </c>
+      <c r="R3">
+        <v>0.829676238724133</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.921028389935145</v>
+        <v>1.828171705086135</v>
       </c>
       <c r="C4">
-        <v>0.5397122392513722</v>
+        <v>0.5594971553606172</v>
       </c>
       <c r="D4">
-        <v>0.02775757302416437</v>
+        <v>0.02944108335082518</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7694356319319411</v>
+        <v>0.7065951406877815</v>
       </c>
       <c r="G4">
-        <v>0.7062563184193493</v>
+        <v>0.6150474054714294</v>
       </c>
       <c r="H4">
-        <v>0.003217477876783059</v>
+        <v>0.002768454666296716</v>
       </c>
       <c r="I4">
-        <v>0.0008195452781820656</v>
+        <v>0.0006907607604684785</v>
       </c>
       <c r="J4">
-        <v>0.4862486003796818</v>
+        <v>0.4889565221446333</v>
       </c>
       <c r="K4">
-        <v>0.4756016455767451</v>
+        <v>0.42010685911427</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2193557025368023</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1074860448088302</v>
       </c>
       <c r="N4">
-        <v>0.1797743110067742</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3382027626836077</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8588491988330578</v>
+        <v>0.1863180179620016</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3268023606728079</v>
+      </c>
+      <c r="R4">
+        <v>0.8445837835830048</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.840602033274507</v>
+        <v>1.753525672125164</v>
       </c>
       <c r="C5">
-        <v>0.5216906492104272</v>
+        <v>0.5393988630812316</v>
       </c>
       <c r="D5">
-        <v>0.0273563586178156</v>
+        <v>0.02883248872848299</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7492879477008856</v>
+        <v>0.6893769046291141</v>
       </c>
       <c r="G5">
-        <v>0.6872228319421225</v>
+        <v>0.5995554846240623</v>
       </c>
       <c r="H5">
-        <v>0.003643907521806433</v>
+        <v>0.003128491503995745</v>
       </c>
       <c r="I5">
-        <v>0.001083285042302151</v>
+        <v>0.0008955982326028789</v>
       </c>
       <c r="J5">
-        <v>0.4785594087047826</v>
+        <v>0.4818732040659768</v>
       </c>
       <c r="K5">
-        <v>0.4701622804058658</v>
+        <v>0.4165767281676871</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2193935607644661</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1053761807934812</v>
       </c>
       <c r="N5">
-        <v>0.1746517012267645</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3247387518803109</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8664918836558488</v>
+        <v>0.1812761552531299</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3140122152021476</v>
+      </c>
+      <c r="R5">
+        <v>0.8509085057448651</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.825648724862475</v>
+        <v>1.739603408242999</v>
       </c>
       <c r="C6">
-        <v>0.5192954651609227</v>
+        <v>0.5366859929041539</v>
       </c>
       <c r="D6">
-        <v>0.027326685605086</v>
+        <v>0.02877404729393973</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7449857522418384</v>
+        <v>0.6856220560332886</v>
       </c>
       <c r="G6">
-        <v>0.682986229841049</v>
+        <v>0.5959968684651642</v>
       </c>
       <c r="H6">
-        <v>0.003721467132929424</v>
+        <v>0.003194056735095541</v>
       </c>
       <c r="I6">
-        <v>0.001223776578782143</v>
+        <v>0.00104197840017406</v>
       </c>
       <c r="J6">
-        <v>0.4767382271802205</v>
+        <v>0.4801723693491056</v>
       </c>
       <c r="K6">
-        <v>0.4685279192262257</v>
+        <v>0.4153371572338678</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2190967325596809</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1048441053643288</v>
       </c>
       <c r="N6">
-        <v>0.1738245363012609</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3223132966834612</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8677796566031137</v>
+        <v>0.180462622187207</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3117056493660613</v>
+      </c>
+      <c r="R6">
+        <v>0.8520778860640199</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.915581363260941</v>
+        <v>1.821210479542685</v>
       </c>
       <c r="C7">
-        <v>0.5410976159709264</v>
+        <v>0.5597574854099037</v>
       </c>
       <c r="D7">
-        <v>0.02785387715290355</v>
+        <v>0.02963443348820149</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7665200421090219</v>
+        <v>0.7021981454029458</v>
       </c>
       <c r="G7">
-        <v>0.7030325465021718</v>
+        <v>0.6158007811848023</v>
       </c>
       <c r="H7">
-        <v>0.003232119163867675</v>
+        <v>0.002784999204460514</v>
       </c>
       <c r="I7">
-        <v>0.001059195124612167</v>
+        <v>0.0009740385821377373</v>
       </c>
       <c r="J7">
-        <v>0.4846411112511788</v>
+        <v>0.4806022057598085</v>
       </c>
       <c r="K7">
-        <v>0.4735198667947103</v>
+        <v>0.4175082711286215</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2182026196164344</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.106686128483382</v>
       </c>
       <c r="N7">
-        <v>0.1797704985625188</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3375035818571277</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8589953139219269</v>
+        <v>0.1863410275019888</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3259176357168769</v>
+      </c>
+      <c r="R7">
+        <v>0.8451480282613701</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.315607615500255</v>
+        <v>2.187108065148664</v>
       </c>
       <c r="C8">
-        <v>0.6362636780460491</v>
+        <v>0.6630945838918478</v>
       </c>
       <c r="D8">
-        <v>0.03007028763398623</v>
+        <v>0.03316352757740404</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8655563308914225</v>
+        <v>0.7821714068514183</v>
       </c>
       <c r="G8">
-        <v>0.7956063019616977</v>
+        <v>0.6992881109279239</v>
       </c>
       <c r="H8">
-        <v>0.001528785476233696</v>
+        <v>0.00134706917327676</v>
       </c>
       <c r="I8">
-        <v>0.0007063476258286627</v>
+        <v>0.0008722116545314407</v>
       </c>
       <c r="J8">
-        <v>0.5218100083598216</v>
+        <v>0.4984246169616995</v>
       </c>
       <c r="K8">
-        <v>0.4980174445667629</v>
+        <v>0.4306531859860314</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2156501412379868</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1172543163197162</v>
       </c>
       <c r="N8">
-        <v>0.20593200224112</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4049147934503168</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8214627181624152</v>
+        <v>0.2121613303709182</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3893294833288152</v>
+      </c>
+      <c r="R8">
+        <v>0.8155104415524335</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.105509897045181</v>
+        <v>2.912511112254492</v>
       </c>
       <c r="C9">
-        <v>0.8227363802502623</v>
+        <v>0.8705161371712222</v>
       </c>
       <c r="D9">
-        <v>0.03419130283884186</v>
+        <v>0.03961228118383175</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.071017150730242</v>
+        <v>0.9537702624839852</v>
       </c>
       <c r="G9">
-        <v>0.9882080152898141</v>
+        <v>0.8593939697730519</v>
       </c>
       <c r="H9">
-        <v>4.090543888590759E-05</v>
+        <v>4.93893803155121E-05</v>
       </c>
       <c r="I9">
-        <v>0.002151700657816669</v>
+        <v>0.00221846379650259</v>
       </c>
       <c r="J9">
-        <v>0.600987583622242</v>
+        <v>0.5607481706870772</v>
       </c>
       <c r="K9">
-        <v>0.552000949119666</v>
+        <v>0.4634361358687116</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2125026114969764</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1455371914065182</v>
       </c>
       <c r="N9">
-        <v>0.2572346932357235</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5378291654298195</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7524813893468316</v>
+        <v>0.2626796726870992</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.514699104159952</v>
+      </c>
+      <c r="R9">
+        <v>0.7615302260517041</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.667322915520288</v>
+        <v>3.416361736654324</v>
       </c>
       <c r="C10">
-        <v>0.9712537001917667</v>
+        <v>1.027372987731127</v>
       </c>
       <c r="D10">
-        <v>0.03777937389498476</v>
+        <v>0.04558932787201542</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.213241192262245</v>
+        <v>1.061718638870246</v>
       </c>
       <c r="G10">
-        <v>1.118793175499377</v>
+        <v>0.9903255186487598</v>
       </c>
       <c r="H10">
-        <v>0.0004109063614907704</v>
+        <v>0.000332410862350585</v>
       </c>
       <c r="I10">
-        <v>0.005051733068211384</v>
+        <v>0.004669324354408033</v>
       </c>
       <c r="J10">
-        <v>0.6540697895149492</v>
+        <v>0.562357056440689</v>
       </c>
       <c r="K10">
-        <v>0.5831336215708731</v>
+        <v>0.4759983199788067</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2053518740655669</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1649781333179092</v>
       </c>
       <c r="N10">
-        <v>0.2798919692238258</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6230636896154422</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.706542302661699</v>
+        <v>0.2846326548178268</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5933473292377016</v>
+      </c>
+      <c r="R10">
+        <v>0.7305633961697993</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.775944523002806</v>
+        <v>3.505273925467009</v>
       </c>
       <c r="C11">
-        <v>1.115616357982702</v>
+        <v>1.158346237006754</v>
       </c>
       <c r="D11">
-        <v>0.04469839504336903</v>
+        <v>0.05522297302681523</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.166849378897041</v>
+        <v>1.002124285004356</v>
       </c>
       <c r="G11">
-        <v>1.054057706481913</v>
+        <v>0.98361743785199</v>
       </c>
       <c r="H11">
-        <v>0.01895570088682064</v>
+        <v>0.01886192453928714</v>
       </c>
       <c r="I11">
-        <v>0.00652774213908458</v>
+        <v>0.006006410420961394</v>
       </c>
       <c r="J11">
-        <v>0.6159458586045474</v>
+        <v>0.4564327088074975</v>
       </c>
       <c r="K11">
-        <v>0.5161806694589259</v>
+        <v>0.4123664164485419</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1780587753716354</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1459687464681814</v>
       </c>
       <c r="N11">
-        <v>0.1782842399201243</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5576874754405807</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7086290294505666</v>
+        <v>0.1807333835957152</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5279090460484355</v>
+      </c>
+      <c r="R11">
+        <v>0.7591271037801874</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.753984533383459</v>
+        <v>3.485788929111266</v>
       </c>
       <c r="C12">
-        <v>1.2082204854552</v>
+        <v>1.240700767265054</v>
       </c>
       <c r="D12">
-        <v>0.05032263174409479</v>
+        <v>0.06227676542340532</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.101895650104069</v>
+        <v>0.9395847353834341</v>
       </c>
       <c r="G12">
-        <v>0.9776408166264332</v>
+        <v>0.9401252769503543</v>
       </c>
       <c r="H12">
-        <v>0.05755602398377135</v>
+        <v>0.05747882721309594</v>
       </c>
       <c r="I12">
-        <v>0.006711513855546691</v>
+        <v>0.006132076030985978</v>
       </c>
       <c r="J12">
-        <v>0.5752588888550036</v>
+        <v>0.3963205779192833</v>
       </c>
       <c r="K12">
-        <v>0.4590871134992582</v>
+        <v>0.3643382015274526</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1599663979908001</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1285268656527556</v>
       </c>
       <c r="N12">
-        <v>0.1160208196124302</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4889245308783927</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7309684980932971</v>
+        <v>0.1165563128045761</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4613057429469549</v>
+      </c>
+      <c r="R12">
+        <v>0.798672407502302</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.623352116201488</v>
+        <v>3.380018501592531</v>
       </c>
       <c r="C13">
-        <v>1.267766515870221</v>
+        <v>1.296361102276762</v>
       </c>
       <c r="D13">
-        <v>0.05536486000831076</v>
+        <v>0.0673286055385276</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.014568864407977</v>
+        <v>0.8704990008926643</v>
       </c>
       <c r="G13">
-        <v>0.8830641333937024</v>
+        <v>0.8528163731759406</v>
       </c>
       <c r="H13">
-        <v>0.1131954242266744</v>
+        <v>0.1131577240342949</v>
       </c>
       <c r="I13">
-        <v>0.006180786246446246</v>
+        <v>0.005710380093913336</v>
       </c>
       <c r="J13">
-        <v>0.5278013079654897</v>
+        <v>0.3717580939181886</v>
       </c>
       <c r="K13">
-        <v>0.4031304048790076</v>
+        <v>0.323411389320114</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1464203459771376</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1110094634456971</v>
       </c>
       <c r="N13">
-        <v>0.08038223681930567</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.41326572606377</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7690367990517402</v>
+        <v>0.07936100285545322</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3898831680072306</v>
+      </c>
+      <c r="R13">
+        <v>0.8446930937017214</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.482024506917867</v>
+        <v>3.265695943718185</v>
       </c>
       <c r="C14">
-        <v>1.295189343654044</v>
+        <v>1.324129325906767</v>
       </c>
       <c r="D14">
-        <v>0.05872149039866059</v>
+        <v>0.06996545190382619</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9432222090282067</v>
+        <v>0.8182731387508539</v>
       </c>
       <c r="G14">
-        <v>0.8086689042965247</v>
+        <v>0.7734939941266532</v>
       </c>
       <c r="H14">
-        <v>0.1624707716404572</v>
+        <v>0.162461851514891</v>
       </c>
       <c r="I14">
-        <v>0.005595214282808847</v>
+        <v>0.00527995442578888</v>
       </c>
       <c r="J14">
-        <v>0.4914807866028639</v>
+        <v>0.3677245043152624</v>
       </c>
       <c r="K14">
-        <v>0.3647190431623741</v>
+        <v>0.2975100011261276</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1385855626043302</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.098784936463165</v>
       </c>
       <c r="N14">
-        <v>0.07129409740891912</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3580961860249232</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8039414188443601</v>
+        <v>0.06948123017995478</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3383870360003058</v>
+      </c>
+      <c r="R14">
+        <v>0.8799156929847385</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.423204918713168</v>
+        <v>3.21773027306017</v>
       </c>
       <c r="C15">
-        <v>1.294856450119028</v>
+        <v>1.325277848376061</v>
       </c>
       <c r="D15">
-        <v>0.05937827697727727</v>
+        <v>0.07015026740727848</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9202681993222086</v>
+        <v>0.8028275963534242</v>
       </c>
       <c r="G15">
-        <v>0.7856774520146672</v>
+        <v>0.7453870772015421</v>
       </c>
       <c r="H15">
-        <v>0.1749548716237399</v>
+        <v>0.1749561041307288</v>
       </c>
       <c r="I15">
-        <v>0.00541408035147839</v>
+        <v>0.005189533840119331</v>
       </c>
       <c r="J15">
-        <v>0.4807047304212091</v>
+        <v>0.3719625557137505</v>
       </c>
       <c r="K15">
-        <v>0.3547386288926084</v>
+        <v>0.2916063082675713</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1371178264606741</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0954916198625142</v>
       </c>
       <c r="N15">
-        <v>0.07103686556131095</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3427176926250937</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8146475126119341</v>
+        <v>0.06915022391704451</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.324247214424247</v>
+      </c>
+      <c r="R15">
+        <v>0.888715903678758</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.208156998614527</v>
+        <v>3.038856107986533</v>
       </c>
       <c r="C16">
-        <v>1.216881492805101</v>
+        <v>1.258040475374798</v>
       </c>
       <c r="D16">
-        <v>0.05667966993117801</v>
+        <v>0.06501882481178001</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8759122083499875</v>
+        <v>0.7825624173500785</v>
       </c>
       <c r="G16">
-        <v>0.7479703544125584</v>
+        <v>0.6758704288667161</v>
       </c>
       <c r="H16">
-        <v>0.1621331998657638</v>
+        <v>0.1621615981567999</v>
       </c>
       <c r="I16">
-        <v>0.004264857797982913</v>
+        <v>0.004324787437136379</v>
       </c>
       <c r="J16">
-        <v>0.4669241411997689</v>
+        <v>0.4201566913164498</v>
       </c>
       <c r="K16">
-        <v>0.3522321306222089</v>
+        <v>0.297948946688507</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.142390556996137</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.09338207499058981</v>
       </c>
       <c r="N16">
-        <v>0.06954467366452111</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3234942706582657</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8230684331459841</v>
+        <v>0.06855346212608104</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3081598208464627</v>
+      </c>
+      <c r="R16">
+        <v>0.8809099435615906</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.118016975465707</v>
+        <v>2.959321965704646</v>
       </c>
       <c r="C17">
-        <v>1.142818057762298</v>
+        <v>1.189248119694241</v>
       </c>
       <c r="D17">
-        <v>0.05281096554563192</v>
+        <v>0.06002535273645293</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8796443713976174</v>
+        <v>0.7927862382781683</v>
       </c>
       <c r="G17">
-        <v>0.7582424921073425</v>
+        <v>0.6687773930459144</v>
       </c>
       <c r="H17">
-        <v>0.1243397681347602</v>
+        <v>0.1243681559328564</v>
       </c>
       <c r="I17">
-        <v>0.00375347892461253</v>
+        <v>0.003933862379267516</v>
       </c>
       <c r="J17">
-        <v>0.4755451582014558</v>
+        <v>0.4540505708495886</v>
       </c>
       <c r="K17">
-        <v>0.3702901645869794</v>
+        <v>0.3160167998284855</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1507965450360516</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09773616385342621</v>
       </c>
       <c r="N17">
-        <v>0.07057093500644562</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3372804897004258</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8108390471195079</v>
+        <v>0.07051714305686074</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3223403806331788</v>
+      </c>
+      <c r="R17">
+        <v>0.8586835183858454</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.127950656350265</v>
+        <v>2.963431648175515</v>
       </c>
       <c r="C18">
-        <v>1.063737191886617</v>
+        <v>1.114219905968582</v>
       </c>
       <c r="D18">
-        <v>0.0476702107082545</v>
+        <v>0.05436254431435117</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9274002321871677</v>
+        <v>0.8360219359721839</v>
       </c>
       <c r="G18">
-        <v>0.8139390316986947</v>
+        <v>0.7085825060752171</v>
       </c>
       <c r="H18">
-        <v>0.07150195889590805</v>
+        <v>0.07152683775428414</v>
       </c>
       <c r="I18">
-        <v>0.003377448210807543</v>
+        <v>0.003540848420705345</v>
       </c>
       <c r="J18">
-        <v>0.5058236697034744</v>
+        <v>0.4912011132736609</v>
       </c>
       <c r="K18">
-        <v>0.4110094275352196</v>
+        <v>0.3499749595877049</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1643670359040605</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1093313480988307</v>
       </c>
       <c r="N18">
-        <v>0.08775969132471673</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.383511905975368</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7836584751942013</v>
+        <v>0.08887701404500348</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3669870365328478</v>
+      </c>
+      <c r="R18">
+        <v>0.8230131377453134</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.209309641088794</v>
+        <v>3.028241187535798</v>
       </c>
       <c r="C19">
-        <v>0.9926082542114898</v>
+        <v>1.046901802647199</v>
       </c>
       <c r="D19">
-        <v>0.0426112149755653</v>
+        <v>0.04909869758798635</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.003775729835098</v>
+        <v>0.9007285208161733</v>
       </c>
       <c r="G19">
-        <v>0.8992435610172436</v>
+        <v>0.7771707928510239</v>
       </c>
       <c r="H19">
-        <v>0.02622930072581653</v>
+        <v>0.02624894805826727</v>
       </c>
       <c r="I19">
-        <v>0.003629264752990302</v>
+        <v>0.003790024739640074</v>
       </c>
       <c r="J19">
-        <v>0.5496962918376056</v>
+        <v>0.5312488075641824</v>
       </c>
       <c r="K19">
-        <v>0.4667981320198251</v>
+        <v>0.3942673672542583</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1810731762291766</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1259104566620834</v>
       </c>
       <c r="N19">
-        <v>0.1375019673152948</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.455333626986544</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7556608834453087</v>
+        <v>0.1400566558636953</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4357488122278923</v>
+      </c>
+      <c r="R19">
+        <v>0.7866389072749271</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.505038727560077</v>
+        <v>3.277196245940956</v>
       </c>
       <c r="C20">
-        <v>0.9376350321644793</v>
+        <v>0.9962188233488121</v>
       </c>
       <c r="D20">
-        <v>0.03720302434228984</v>
+        <v>0.04410627239385434</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.166644386618472</v>
+        <v>1.031209420353505</v>
       </c>
       <c r="G20">
-        <v>1.07421487247872</v>
+        <v>0.9329607518532157</v>
       </c>
       <c r="H20">
-        <v>0.0002016963302660102</v>
+        <v>0.0001664851333909034</v>
       </c>
       <c r="I20">
-        <v>0.004844640108679243</v>
+        <v>0.004797459062719334</v>
       </c>
       <c r="J20">
-        <v>0.6349334686951238</v>
+        <v>0.580943395037707</v>
       </c>
       <c r="K20">
-        <v>0.5682054977871474</v>
+        <v>0.4696421535721313</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2061207041204334</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1585037429222602</v>
       </c>
       <c r="N20">
-        <v>0.2734842237895947</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5985179208130305</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7191553197187233</v>
+        <v>0.2783112606715719</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5714581193556612</v>
+      </c>
+      <c r="R20">
+        <v>0.7393646361095598</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.963844285998562</v>
+        <v>3.650043451417218</v>
       </c>
       <c r="C21">
-        <v>1.039329232445795</v>
+        <v>1.081619744774429</v>
       </c>
       <c r="D21">
-        <v>0.03907725957883912</v>
+        <v>0.0496203397324706</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.298884716243265</v>
+        <v>1.10052247248899</v>
       </c>
       <c r="G21">
-        <v>1.199923447411777</v>
+        <v>1.129411217966748</v>
       </c>
       <c r="H21">
-        <v>0.0007468888939183849</v>
+        <v>0.0005192724207816468</v>
       </c>
       <c r="I21">
-        <v>0.007665567908318849</v>
+        <v>0.006955443135533201</v>
       </c>
       <c r="J21">
-        <v>0.688571978606177</v>
+        <v>0.476141497614492</v>
       </c>
       <c r="K21">
-        <v>0.6085315760287529</v>
+        <v>0.4779708276702621</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2002426643511264</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.173623512883978</v>
       </c>
       <c r="N21">
-        <v>0.3146727412629957</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6832132398924813</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6828155429557015</v>
+        <v>0.3199168509682977</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6457750350237035</v>
+      </c>
+      <c r="R21">
+        <v>0.7177432163094863</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.26189341756708</v>
+        <v>3.888709371081404</v>
       </c>
       <c r="C22">
-        <v>1.108483681726369</v>
+        <v>1.137868657693303</v>
       </c>
       <c r="D22">
-        <v>0.04042540276862994</v>
+        <v>0.05360420117720821</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.383773366267874</v>
+        <v>1.141604037053327</v>
       </c>
       <c r="G22">
-        <v>1.280096855357215</v>
+        <v>1.266728431598352</v>
       </c>
       <c r="H22">
-        <v>0.001473597801678883</v>
+        <v>0.001045626238999064</v>
       </c>
       <c r="I22">
-        <v>0.009632220097229194</v>
+        <v>0.008291086028854089</v>
       </c>
       <c r="J22">
-        <v>0.7226831573281629</v>
+        <v>0.4076007310437575</v>
       </c>
       <c r="K22">
-        <v>0.633218381477036</v>
+        <v>0.4809513491976531</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1955982343449421</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1829153757475623</v>
       </c>
       <c r="N22">
-        <v>0.3337889562824188</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.733149157211443</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6601258590468824</v>
+        <v>0.339258744833316</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6886511140852392</v>
+      </c>
+      <c r="R22">
+        <v>0.7061997797807535</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.108169841138931</v>
+        <v>3.77146748921183</v>
       </c>
       <c r="C23">
-        <v>1.069487185549775</v>
+        <v>1.10893460999759</v>
       </c>
       <c r="D23">
-        <v>0.03957518425158568</v>
+        <v>0.05102941358993007</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.341510441406271</v>
+        <v>1.12699110687592</v>
       </c>
       <c r="G23">
-        <v>1.240746847936123</v>
+        <v>1.185488995684807</v>
       </c>
       <c r="H23">
-        <v>0.001061528618126806</v>
+        <v>0.0007505099100659773</v>
       </c>
       <c r="I23">
-        <v>0.008284865723887869</v>
+        <v>0.007241006562493268</v>
       </c>
       <c r="J23">
-        <v>0.7061993733643135</v>
+        <v>0.4589670386878737</v>
       </c>
       <c r="K23">
-        <v>0.6223692130528207</v>
+        <v>0.4832640549650122</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1994033672388156</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1795378532819285</v>
       </c>
       <c r="N23">
-        <v>0.3234899311283641</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7071275007196007</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6718640761515644</v>
+        <v>0.328742134739187</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6669823129017871</v>
+      </c>
+      <c r="R23">
+        <v>0.7105102812506274</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.518316949454118</v>
+        <v>3.288718581357671</v>
       </c>
       <c r="C24">
-        <v>0.9265987599210064</v>
+        <v>0.9853545181968855</v>
       </c>
       <c r="D24">
-        <v>0.03655855376662132</v>
+        <v>0.0433463158592744</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.179248241295184</v>
+        <v>1.042403589264751</v>
       </c>
       <c r="G24">
-        <v>1.088712975699138</v>
+        <v>0.944633914259569</v>
       </c>
       <c r="H24">
-        <v>0.0001012941777085441</v>
+        <v>6.176435921534384E-05</v>
       </c>
       <c r="I24">
-        <v>0.004420170008243574</v>
+        <v>0.004266377278234756</v>
       </c>
       <c r="J24">
-        <v>0.6423672250456178</v>
+        <v>0.5885668658846157</v>
       </c>
       <c r="K24">
-        <v>0.5785434109119265</v>
+        <v>0.4782068983504857</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2093751077842789</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1616832998159161</v>
       </c>
       <c r="N24">
-        <v>0.2848340682928097</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6077537998952494</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7182151601714288</v>
+        <v>0.2898490752492506</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5803226334796463</v>
+      </c>
+      <c r="R24">
+        <v>0.7362838146463915</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.883870371380283</v>
+        <v>2.711855690726452</v>
       </c>
       <c r="C25">
-        <v>0.7749125928388594</v>
+        <v>0.818807232043298</v>
       </c>
       <c r="D25">
-        <v>0.03327294931190039</v>
+        <v>0.0379609923125841</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.009795326507543</v>
+        <v>0.9048120386878935</v>
       </c>
       <c r="G25">
-        <v>0.9299604692940591</v>
+        <v>0.8051736407453376</v>
       </c>
       <c r="H25">
-        <v>0.0002292449028644672</v>
+        <v>0.0002223599498158979</v>
       </c>
       <c r="I25">
-        <v>0.001851545958762024</v>
+        <v>0.002097825544304044</v>
       </c>
       <c r="J25">
-        <v>0.576402565308598</v>
+        <v>0.5509008304895389</v>
       </c>
       <c r="K25">
-        <v>0.5334757694261469</v>
+        <v>0.4523531270060843</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2126236795056329</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1365013615865536</v>
       </c>
       <c r="N25">
-        <v>0.2434514418120344</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.500915417020515</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7709046845954735</v>
+        <v>0.2490781677994462</v>
       </c>
       <c r="Q25">
+        <v>0.480240329079713</v>
+      </c>
+      <c r="R25">
+        <v>0.7761088177021165</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
